--- a/ЗАВОДЫ/Ресурс Юг/2025/03,25/10,03,25 Ресурс Юг/дв 10,03,25 бррсч рю.xlsx
+++ b/ЗАВОДЫ/Ресурс Юг/2025/03,25/10,03,25 Ресурс Юг/дв 10,03,25 бррсч рю.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\10,03,25 Ресурс Юг\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\Ресурс Юг\2025\03,25\10,03,25 Ресурс Юг\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5178D45D-5578-43CE-83EE-8920D5232CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C7454-938F-4586-A913-C60EC577F971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,22 +20,14 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AF$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AG$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -159,6 +151,9 @@
   <si>
     <t xml:space="preserve">нужно увеличить продажи / или 15кг(м1004) </t>
   </si>
+  <si>
+    <t>метка2</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -273,7 +268,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -295,7 +289,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TDSheet"/>
@@ -8082,7 +8076,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TDSheet"/>
@@ -16488,13 +16482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX499"/>
+  <dimension ref="A1:AY499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16504,19 +16498,21 @@
     <col min="3" max="4" width="6" customWidth="1"/>
     <col min="5" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" customWidth="1"/>
-    <col min="8" max="9" width="0.5703125" customWidth="1"/>
-    <col min="10" max="11" width="7" customWidth="1"/>
-    <col min="12" max="14" width="0.5703125" customWidth="1"/>
-    <col min="15" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="20" width="5" customWidth="1"/>
-    <col min="21" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="45.7109375" customWidth="1"/>
-    <col min="32" max="32" width="7" customWidth="1"/>
-    <col min="33" max="50" width="8" customWidth="1"/>
+    <col min="8" max="8" width="0.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="12" width="7" customWidth="1"/>
+    <col min="13" max="15" width="0.5703125" customWidth="1"/>
+    <col min="16" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="21" width="5" customWidth="1"/>
+    <col min="22" max="31" width="6" customWidth="1"/>
+    <col min="32" max="32" width="45.7109375" customWidth="1"/>
+    <col min="33" max="33" width="7" customWidth="1"/>
+    <col min="34" max="51" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16567,8 +16563,9 @@
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY1" s="1"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16589,8 +16586,8 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="10"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -16619,8 +16616,9 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY2" s="1"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -16649,40 +16647,40 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>20</v>
@@ -16712,12 +16710,14 @@
         <v>20</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -16735,8 +16735,9 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY3" s="1"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -16750,48 +16751,48 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -16811,8 +16812,9 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY4" s="1"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -16828,17 +16830,14 @@
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:Q5" si="0">SUM(J6:J499)</f>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:R5" si="0">SUM(K6:K499)</f>
         <v>687</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>27.795999999999992</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27.795999999999992</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
@@ -16850,65 +16849,68 @@
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>142.95920000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1919.002</v>
+        <v>142.95920000000001</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
+        <v>1919.002</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="4">
-        <f t="shared" ref="U5:AD5" si="1">SUM(U6:U499)</f>
+      <c r="U5" s="1"/>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:AE5" si="1">SUM(V6:V499)</f>
         <v>111.49160000000001</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="1"/>
         <v>121.7646</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="1"/>
         <v>1.6194</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" si="1"/>
         <v>127.619</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <f t="shared" si="1"/>
         <v>50.114199999999997</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <f t="shared" si="1"/>
         <v>83.209199999999996</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <f t="shared" si="1"/>
         <v>97.345799999999997</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <f t="shared" si="1"/>
         <v>113.5872</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <f t="shared" si="1"/>
         <v>107.39840000000001</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="4">
-        <f>SUM(AF6:AF499)</f>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="4">
+        <f>SUM(AG6:AG499)</f>
         <v>1919.002</v>
       </c>
-      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -16926,8 +16928,9 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY5" s="1"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -16949,41 +16952,39 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>291</v>
       </c>
-      <c r="K6" s="1">
-        <f>E6-J6</f>
+      <c r="L6" s="1">
+        <f>E6-K6</f>
         <v>-15</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
         <f>E6/5</f>
         <v>55.2</v>
       </c>
-      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <f>(F6+P6)/O6</f>
-        <v>24.34782608695652</v>
-      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="1">
-        <f>F6/O6</f>
+        <f>(F6+Q6)/P6</f>
         <v>24.34782608695652</v>
       </c>
       <c r="U6" s="1">
+        <f>F6/P6</f>
+        <v>24.34782608695652</v>
+      </c>
+      <c r="V6" s="1">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$S,7,0)/5</f>
         <v>31.2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <f>VLOOKUP(A6,[2]TDSheet!$A:$S,7,0)/5</f>
         <v>36</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -16992,26 +16993,28 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
         <v>4.8</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>52.8</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>60</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>38.4</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>16.8</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1">
-        <f>G6*P6</f>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1">
+        <f>G6*Q6</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -17029,9 +17032,10 @@
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="AY6" s="1"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -17047,32 +17051,30 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <f>E7-J7</f>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <f>E7-K7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <f t="shared" ref="O7:O9" si="2">E7/5</f>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <f t="shared" ref="P7:P9" si="2">E7/5</f>
         <v>0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>500</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="e">
-        <f t="shared" ref="S7:S9" si="3">(F7+P7)/O7</f>
+      <c r="R7" s="5"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="e">
+        <f t="shared" ref="T7:T9" si="3">(F7+Q7)/P7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T7" s="1" t="e">
-        <f t="shared" ref="T7:T9" si="4">F7/O7</f>
+      <c r="U7" s="1" t="e">
+        <f t="shared" ref="U7:U9" si="4">F7/P7</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -17096,17 +17098,19 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
         <v>2.4</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>9.6</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1">
-        <f>G7*P7</f>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1">
+        <f>G7*Q7</f>
         <v>500</v>
       </c>
-      <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -17124,9 +17128,10 @@
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="AY7" s="1"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -17147,41 +17152,39 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
         <v>96</v>
       </c>
-      <c r="K8" s="1">
-        <f>E8-J8</f>
+      <c r="L8" s="1">
+        <f>E8-K8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
         <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
-      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1">
+      <c r="R8" s="5"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1">
         <f t="shared" si="3"/>
         <v>78.75</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="4"/>
         <v>78.75</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$S,7,0)/5</f>
         <v>19.2</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <f>VLOOKUP(A8,[2]TDSheet!$A:$S,7,0)/5</f>
         <v>21.6</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -17204,14 +17207,16 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AF8" s="1">
-        <f>G8*P8</f>
+      <c r="AG8" s="1">
+        <f>G8*Q8</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
@@ -17229,8 +17234,9 @@
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY8" s="1"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -17254,72 +17260,72 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
         <v>300</v>
       </c>
-      <c r="K9" s="1">
-        <f>E9-J9</f>
+      <c r="L9" s="1">
+        <f>E9-K9</f>
         <v>42.795999999999992</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
         <f t="shared" si="2"/>
         <v>68.559200000000004</v>
       </c>
-      <c r="P9" s="5">
-        <f>25*O9-F9</f>
+      <c r="Q9" s="5">
+        <f>25*P9-F9</f>
         <v>1419.002</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1">
+      <c r="R9" s="5"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <f t="shared" si="4"/>
         <v>4.3025297844782315</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <f>VLOOKUP(A9,[1]TDSheet!$A:$S,7,0)/5</f>
         <v>61.091600000000007</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <f>VLOOKUP(A9,[2]TDSheet!$A:$S,7,0)/5</f>
         <v>64.164599999999993</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>1.6194</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>127.619</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>45.3142</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>30.409199999999998</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>37.345799999999997</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>72.787199999999999</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>80.998400000000004</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1">
-        <f>G9*P9</f>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1">
+        <f>G9*Q9</f>
         <v>1419.002</v>
       </c>
-      <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -17337,8 +17343,9 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY9" s="1"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -17389,8 +17396,9 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY10" s="1"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -17441,8 +17449,9 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY11" s="1"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -17493,8 +17502,9 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY12" s="1"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -17545,8 +17555,9 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY13" s="1"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17597,8 +17608,9 @@
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY14" s="1"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -17649,8 +17661,9 @@
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY15" s="1"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -17701,8 +17714,9 @@
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY16" s="1"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -17753,8 +17767,9 @@
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY17" s="1"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -17805,8 +17820,9 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY18" s="1"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -17857,8 +17873,9 @@
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY19" s="1"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17909,8 +17926,9 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY20" s="1"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -17961,8 +17979,9 @@
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY21" s="1"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -18013,8 +18032,9 @@
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY22" s="1"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -18065,8 +18085,9 @@
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY23" s="1"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -18117,8 +18138,9 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY24" s="1"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -18169,8 +18191,9 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY25" s="1"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -18221,8 +18244,9 @@
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY26" s="1"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -18273,8 +18297,9 @@
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY27" s="1"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -18325,8 +18350,9 @@
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY28" s="1"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -18377,8 +18403,9 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY29" s="1"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -18429,8 +18456,9 @@
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY30" s="1"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -18481,8 +18509,9 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY31" s="1"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -18533,8 +18562,9 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY32" s="1"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -18585,8 +18615,9 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY33" s="1"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -18637,8 +18668,9 @@
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY34" s="1"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -18689,8 +18721,9 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY35" s="1"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -18741,8 +18774,9 @@
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY36" s="1"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -18793,8 +18827,9 @@
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY37" s="1"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -18845,8 +18880,9 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY38" s="1"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -18897,8 +18933,9 @@
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY39" s="1"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -18949,8 +18986,9 @@
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY40" s="1"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -19001,8 +19039,9 @@
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY41" s="1"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -19053,8 +19092,9 @@
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY42" s="1"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -19105,8 +19145,9 @@
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY43" s="1"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -19157,8 +19198,9 @@
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY44" s="1"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -19209,8 +19251,9 @@
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY45" s="1"/>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -19261,8 +19304,9 @@
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY46" s="1"/>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -19313,8 +19357,9 @@
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY47" s="1"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -19365,8 +19410,9 @@
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY48" s="1"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -19417,8 +19463,9 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY49" s="1"/>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -19469,8 +19516,9 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY50" s="1"/>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -19521,8 +19569,9 @@
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY51" s="1"/>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -19573,8 +19622,9 @@
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY52" s="1"/>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -19625,8 +19675,9 @@
       <c r="AV53" s="1"/>
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY53" s="1"/>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -19677,8 +19728,9 @@
       <c r="AV54" s="1"/>
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY54" s="1"/>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -19729,8 +19781,9 @@
       <c r="AV55" s="1"/>
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY55" s="1"/>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -19781,8 +19834,9 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
-    </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY56" s="1"/>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -19833,8 +19887,9 @@
       <c r="AV57" s="1"/>
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY57" s="1"/>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -19885,8 +19940,9 @@
       <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY58" s="1"/>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -19937,8 +19993,9 @@
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY59" s="1"/>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -19989,8 +20046,9 @@
       <c r="AV60" s="1"/>
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY60" s="1"/>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -20041,8 +20099,9 @@
       <c r="AV61" s="1"/>
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY61" s="1"/>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -20093,8 +20152,9 @@
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY62" s="1"/>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -20145,8 +20205,9 @@
       <c r="AV63" s="1"/>
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
-    </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY63" s="1"/>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -20197,8 +20258,9 @@
       <c r="AV64" s="1"/>
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY64" s="1"/>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -20249,8 +20311,9 @@
       <c r="AV65" s="1"/>
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
-    </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY65" s="1"/>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -20301,8 +20364,9 @@
       <c r="AV66" s="1"/>
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
-    </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY66" s="1"/>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -20353,8 +20417,9 @@
       <c r="AV67" s="1"/>
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
-    </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY67" s="1"/>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -20405,8 +20470,9 @@
       <c r="AV68" s="1"/>
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
-    </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY68" s="1"/>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -20457,8 +20523,9 @@
       <c r="AV69" s="1"/>
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
-    </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY69" s="1"/>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -20509,8 +20576,9 @@
       <c r="AV70" s="1"/>
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
-    </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY70" s="1"/>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -20561,8 +20629,9 @@
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
-    </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY71" s="1"/>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -20613,8 +20682,9 @@
       <c r="AV72" s="1"/>
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
-    </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY72" s="1"/>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -20665,8 +20735,9 @@
       <c r="AV73" s="1"/>
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
-    </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY73" s="1"/>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -20717,8 +20788,9 @@
       <c r="AV74" s="1"/>
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
-    </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY74" s="1"/>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -20769,8 +20841,9 @@
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
-    </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY75" s="1"/>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -20821,8 +20894,9 @@
       <c r="AV76" s="1"/>
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
-    </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY76" s="1"/>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -20873,8 +20947,9 @@
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
-    </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY77" s="1"/>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -20925,8 +21000,9 @@
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
-    </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY78" s="1"/>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -20977,8 +21053,9 @@
       <c r="AV79" s="1"/>
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY79" s="1"/>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -21029,8 +21106,9 @@
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
-    </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY80" s="1"/>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -21081,8 +21159,9 @@
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
-    </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY81" s="1"/>
+    </row>
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -21133,8 +21212,9 @@
       <c r="AV82" s="1"/>
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
-    </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY82" s="1"/>
+    </row>
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -21185,8 +21265,9 @@
       <c r="AV83" s="1"/>
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
-    </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY83" s="1"/>
+    </row>
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -21237,8 +21318,9 @@
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
-    </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY84" s="1"/>
+    </row>
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -21289,8 +21371,9 @@
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
-    </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY85" s="1"/>
+    </row>
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -21341,8 +21424,9 @@
       <c r="AV86" s="1"/>
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
-    </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY86" s="1"/>
+    </row>
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -21393,8 +21477,9 @@
       <c r="AV87" s="1"/>
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
-    </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY87" s="1"/>
+    </row>
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -21445,8 +21530,9 @@
       <c r="AV88" s="1"/>
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
-    </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY88" s="1"/>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -21497,8 +21583,9 @@
       <c r="AV89" s="1"/>
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
-    </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY89" s="1"/>
+    </row>
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -21549,8 +21636,9 @@
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
-    </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY90" s="1"/>
+    </row>
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -21601,8 +21689,9 @@
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
-    </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY91" s="1"/>
+    </row>
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -21653,8 +21742,9 @@
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
-    </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY92" s="1"/>
+    </row>
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -21705,8 +21795,9 @@
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
-    </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY93" s="1"/>
+    </row>
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -21757,8 +21848,9 @@
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
-    </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY94" s="1"/>
+    </row>
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -21809,8 +21901,9 @@
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
-    </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY95" s="1"/>
+    </row>
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -21861,8 +21954,9 @@
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
-    </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY96" s="1"/>
+    </row>
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -21913,8 +22007,9 @@
       <c r="AV97" s="1"/>
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
-    </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY97" s="1"/>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -21965,8 +22060,9 @@
       <c r="AV98" s="1"/>
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
-    </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY98" s="1"/>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -22017,8 +22113,9 @@
       <c r="AV99" s="1"/>
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
-    </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY99" s="1"/>
+    </row>
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -22069,8 +22166,9 @@
       <c r="AV100" s="1"/>
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
-    </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY100" s="1"/>
+    </row>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -22121,8 +22219,9 @@
       <c r="AV101" s="1"/>
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
-    </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY101" s="1"/>
+    </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -22173,8 +22272,9 @@
       <c r="AV102" s="1"/>
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
-    </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY102" s="1"/>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -22225,8 +22325,9 @@
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
-    </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY103" s="1"/>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -22277,8 +22378,9 @@
       <c r="AV104" s="1"/>
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
-    </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY104" s="1"/>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -22329,8 +22431,9 @@
       <c r="AV105" s="1"/>
       <c r="AW105" s="1"/>
       <c r="AX105" s="1"/>
-    </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY105" s="1"/>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -22381,8 +22484,9 @@
       <c r="AV106" s="1"/>
       <c r="AW106" s="1"/>
       <c r="AX106" s="1"/>
-    </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY106" s="1"/>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -22433,8 +22537,9 @@
       <c r="AV107" s="1"/>
       <c r="AW107" s="1"/>
       <c r="AX107" s="1"/>
-    </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY107" s="1"/>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -22485,8 +22590,9 @@
       <c r="AV108" s="1"/>
       <c r="AW108" s="1"/>
       <c r="AX108" s="1"/>
-    </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY108" s="1"/>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -22537,8 +22643,9 @@
       <c r="AV109" s="1"/>
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
-    </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY109" s="1"/>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -22589,8 +22696,9 @@
       <c r="AV110" s="1"/>
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
-    </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY110" s="1"/>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -22641,8 +22749,9 @@
       <c r="AV111" s="1"/>
       <c r="AW111" s="1"/>
       <c r="AX111" s="1"/>
-    </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY111" s="1"/>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -22693,8 +22802,9 @@
       <c r="AV112" s="1"/>
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
-    </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY112" s="1"/>
+    </row>
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -22745,8 +22855,9 @@
       <c r="AV113" s="1"/>
       <c r="AW113" s="1"/>
       <c r="AX113" s="1"/>
-    </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY113" s="1"/>
+    </row>
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -22797,8 +22908,9 @@
       <c r="AV114" s="1"/>
       <c r="AW114" s="1"/>
       <c r="AX114" s="1"/>
-    </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY114" s="1"/>
+    </row>
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -22849,8 +22961,9 @@
       <c r="AV115" s="1"/>
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
-    </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY115" s="1"/>
+    </row>
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -22901,8 +23014,9 @@
       <c r="AV116" s="1"/>
       <c r="AW116" s="1"/>
       <c r="AX116" s="1"/>
-    </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY116" s="1"/>
+    </row>
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -22953,8 +23067,9 @@
       <c r="AV117" s="1"/>
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
-    </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY117" s="1"/>
+    </row>
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -23005,8 +23120,9 @@
       <c r="AV118" s="1"/>
       <c r="AW118" s="1"/>
       <c r="AX118" s="1"/>
-    </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY118" s="1"/>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -23057,8 +23173,9 @@
       <c r="AV119" s="1"/>
       <c r="AW119" s="1"/>
       <c r="AX119" s="1"/>
-    </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY119" s="1"/>
+    </row>
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -23109,8 +23226,9 @@
       <c r="AV120" s="1"/>
       <c r="AW120" s="1"/>
       <c r="AX120" s="1"/>
-    </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY120" s="1"/>
+    </row>
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -23161,8 +23279,9 @@
       <c r="AV121" s="1"/>
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
-    </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY121" s="1"/>
+    </row>
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -23213,8 +23332,9 @@
       <c r="AV122" s="1"/>
       <c r="AW122" s="1"/>
       <c r="AX122" s="1"/>
-    </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY122" s="1"/>
+    </row>
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -23265,8 +23385,9 @@
       <c r="AV123" s="1"/>
       <c r="AW123" s="1"/>
       <c r="AX123" s="1"/>
-    </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY123" s="1"/>
+    </row>
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -23317,8 +23438,9 @@
       <c r="AV124" s="1"/>
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
-    </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY124" s="1"/>
+    </row>
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -23369,8 +23491,9 @@
       <c r="AV125" s="1"/>
       <c r="AW125" s="1"/>
       <c r="AX125" s="1"/>
-    </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY125" s="1"/>
+    </row>
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -23421,8 +23544,9 @@
       <c r="AV126" s="1"/>
       <c r="AW126" s="1"/>
       <c r="AX126" s="1"/>
-    </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY126" s="1"/>
+    </row>
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -23473,8 +23597,9 @@
       <c r="AV127" s="1"/>
       <c r="AW127" s="1"/>
       <c r="AX127" s="1"/>
-    </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY127" s="1"/>
+    </row>
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -23525,8 +23650,9 @@
       <c r="AV128" s="1"/>
       <c r="AW128" s="1"/>
       <c r="AX128" s="1"/>
-    </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY128" s="1"/>
+    </row>
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -23577,8 +23703,9 @@
       <c r="AV129" s="1"/>
       <c r="AW129" s="1"/>
       <c r="AX129" s="1"/>
-    </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY129" s="1"/>
+    </row>
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -23629,8 +23756,9 @@
       <c r="AV130" s="1"/>
       <c r="AW130" s="1"/>
       <c r="AX130" s="1"/>
-    </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY130" s="1"/>
+    </row>
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -23681,8 +23809,9 @@
       <c r="AV131" s="1"/>
       <c r="AW131" s="1"/>
       <c r="AX131" s="1"/>
-    </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY131" s="1"/>
+    </row>
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -23733,8 +23862,9 @@
       <c r="AV132" s="1"/>
       <c r="AW132" s="1"/>
       <c r="AX132" s="1"/>
-    </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY132" s="1"/>
+    </row>
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -23785,8 +23915,9 @@
       <c r="AV133" s="1"/>
       <c r="AW133" s="1"/>
       <c r="AX133" s="1"/>
-    </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY133" s="1"/>
+    </row>
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -23837,8 +23968,9 @@
       <c r="AV134" s="1"/>
       <c r="AW134" s="1"/>
       <c r="AX134" s="1"/>
-    </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY134" s="1"/>
+    </row>
+    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -23889,8 +24021,9 @@
       <c r="AV135" s="1"/>
       <c r="AW135" s="1"/>
       <c r="AX135" s="1"/>
-    </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY135" s="1"/>
+    </row>
+    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -23941,8 +24074,9 @@
       <c r="AV136" s="1"/>
       <c r="AW136" s="1"/>
       <c r="AX136" s="1"/>
-    </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY136" s="1"/>
+    </row>
+    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -23993,8 +24127,9 @@
       <c r="AV137" s="1"/>
       <c r="AW137" s="1"/>
       <c r="AX137" s="1"/>
-    </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY137" s="1"/>
+    </row>
+    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -24045,8 +24180,9 @@
       <c r="AV138" s="1"/>
       <c r="AW138" s="1"/>
       <c r="AX138" s="1"/>
-    </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY138" s="1"/>
+    </row>
+    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -24097,8 +24233,9 @@
       <c r="AV139" s="1"/>
       <c r="AW139" s="1"/>
       <c r="AX139" s="1"/>
-    </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY139" s="1"/>
+    </row>
+    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -24149,8 +24286,9 @@
       <c r="AV140" s="1"/>
       <c r="AW140" s="1"/>
       <c r="AX140" s="1"/>
-    </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY140" s="1"/>
+    </row>
+    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -24201,8 +24339,9 @@
       <c r="AV141" s="1"/>
       <c r="AW141" s="1"/>
       <c r="AX141" s="1"/>
-    </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY141" s="1"/>
+    </row>
+    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -24253,8 +24392,9 @@
       <c r="AV142" s="1"/>
       <c r="AW142" s="1"/>
       <c r="AX142" s="1"/>
-    </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY142" s="1"/>
+    </row>
+    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -24305,8 +24445,9 @@
       <c r="AV143" s="1"/>
       <c r="AW143" s="1"/>
       <c r="AX143" s="1"/>
-    </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY143" s="1"/>
+    </row>
+    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -24357,8 +24498,9 @@
       <c r="AV144" s="1"/>
       <c r="AW144" s="1"/>
       <c r="AX144" s="1"/>
-    </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY144" s="1"/>
+    </row>
+    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -24409,8 +24551,9 @@
       <c r="AV145" s="1"/>
       <c r="AW145" s="1"/>
       <c r="AX145" s="1"/>
-    </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY145" s="1"/>
+    </row>
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -24461,8 +24604,9 @@
       <c r="AV146" s="1"/>
       <c r="AW146" s="1"/>
       <c r="AX146" s="1"/>
-    </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY146" s="1"/>
+    </row>
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -24513,8 +24657,9 @@
       <c r="AV147" s="1"/>
       <c r="AW147" s="1"/>
       <c r="AX147" s="1"/>
-    </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY147" s="1"/>
+    </row>
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -24565,8 +24710,9 @@
       <c r="AV148" s="1"/>
       <c r="AW148" s="1"/>
       <c r="AX148" s="1"/>
-    </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY148" s="1"/>
+    </row>
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -24617,8 +24763,9 @@
       <c r="AV149" s="1"/>
       <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
-    </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY149" s="1"/>
+    </row>
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -24669,8 +24816,9 @@
       <c r="AV150" s="1"/>
       <c r="AW150" s="1"/>
       <c r="AX150" s="1"/>
-    </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY150" s="1"/>
+    </row>
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -24721,8 +24869,9 @@
       <c r="AV151" s="1"/>
       <c r="AW151" s="1"/>
       <c r="AX151" s="1"/>
-    </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY151" s="1"/>
+    </row>
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -24773,8 +24922,9 @@
       <c r="AV152" s="1"/>
       <c r="AW152" s="1"/>
       <c r="AX152" s="1"/>
-    </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY152" s="1"/>
+    </row>
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -24825,8 +24975,9 @@
       <c r="AV153" s="1"/>
       <c r="AW153" s="1"/>
       <c r="AX153" s="1"/>
-    </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY153" s="1"/>
+    </row>
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -24877,8 +25028,9 @@
       <c r="AV154" s="1"/>
       <c r="AW154" s="1"/>
       <c r="AX154" s="1"/>
-    </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY154" s="1"/>
+    </row>
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -24929,8 +25081,9 @@
       <c r="AV155" s="1"/>
       <c r="AW155" s="1"/>
       <c r="AX155" s="1"/>
-    </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY155" s="1"/>
+    </row>
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -24981,8 +25134,9 @@
       <c r="AV156" s="1"/>
       <c r="AW156" s="1"/>
       <c r="AX156" s="1"/>
-    </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY156" s="1"/>
+    </row>
+    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -25033,8 +25187,9 @@
       <c r="AV157" s="1"/>
       <c r="AW157" s="1"/>
       <c r="AX157" s="1"/>
-    </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY157" s="1"/>
+    </row>
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -25085,8 +25240,9 @@
       <c r="AV158" s="1"/>
       <c r="AW158" s="1"/>
       <c r="AX158" s="1"/>
-    </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY158" s="1"/>
+    </row>
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -25137,8 +25293,9 @@
       <c r="AV159" s="1"/>
       <c r="AW159" s="1"/>
       <c r="AX159" s="1"/>
-    </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY159" s="1"/>
+    </row>
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -25189,8 +25346,9 @@
       <c r="AV160" s="1"/>
       <c r="AW160" s="1"/>
       <c r="AX160" s="1"/>
-    </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY160" s="1"/>
+    </row>
+    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -25241,8 +25399,9 @@
       <c r="AV161" s="1"/>
       <c r="AW161" s="1"/>
       <c r="AX161" s="1"/>
-    </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY161" s="1"/>
+    </row>
+    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -25293,8 +25452,9 @@
       <c r="AV162" s="1"/>
       <c r="AW162" s="1"/>
       <c r="AX162" s="1"/>
-    </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY162" s="1"/>
+    </row>
+    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -25345,8 +25505,9 @@
       <c r="AV163" s="1"/>
       <c r="AW163" s="1"/>
       <c r="AX163" s="1"/>
-    </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY163" s="1"/>
+    </row>
+    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -25397,8 +25558,9 @@
       <c r="AV164" s="1"/>
       <c r="AW164" s="1"/>
       <c r="AX164" s="1"/>
-    </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY164" s="1"/>
+    </row>
+    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -25449,8 +25611,9 @@
       <c r="AV165" s="1"/>
       <c r="AW165" s="1"/>
       <c r="AX165" s="1"/>
-    </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY165" s="1"/>
+    </row>
+    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -25501,8 +25664,9 @@
       <c r="AV166" s="1"/>
       <c r="AW166" s="1"/>
       <c r="AX166" s="1"/>
-    </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY166" s="1"/>
+    </row>
+    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -25553,8 +25717,9 @@
       <c r="AV167" s="1"/>
       <c r="AW167" s="1"/>
       <c r="AX167" s="1"/>
-    </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY167" s="1"/>
+    </row>
+    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -25605,8 +25770,9 @@
       <c r="AV168" s="1"/>
       <c r="AW168" s="1"/>
       <c r="AX168" s="1"/>
-    </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY168" s="1"/>
+    </row>
+    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -25657,8 +25823,9 @@
       <c r="AV169" s="1"/>
       <c r="AW169" s="1"/>
       <c r="AX169" s="1"/>
-    </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY169" s="1"/>
+    </row>
+    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -25709,8 +25876,9 @@
       <c r="AV170" s="1"/>
       <c r="AW170" s="1"/>
       <c r="AX170" s="1"/>
-    </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY170" s="1"/>
+    </row>
+    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -25761,8 +25929,9 @@
       <c r="AV171" s="1"/>
       <c r="AW171" s="1"/>
       <c r="AX171" s="1"/>
-    </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY171" s="1"/>
+    </row>
+    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -25813,8 +25982,9 @@
       <c r="AV172" s="1"/>
       <c r="AW172" s="1"/>
       <c r="AX172" s="1"/>
-    </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY172" s="1"/>
+    </row>
+    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -25865,8 +26035,9 @@
       <c r="AV173" s="1"/>
       <c r="AW173" s="1"/>
       <c r="AX173" s="1"/>
-    </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY173" s="1"/>
+    </row>
+    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -25917,8 +26088,9 @@
       <c r="AV174" s="1"/>
       <c r="AW174" s="1"/>
       <c r="AX174" s="1"/>
-    </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY174" s="1"/>
+    </row>
+    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -25969,8 +26141,9 @@
       <c r="AV175" s="1"/>
       <c r="AW175" s="1"/>
       <c r="AX175" s="1"/>
-    </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY175" s="1"/>
+    </row>
+    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -26021,8 +26194,9 @@
       <c r="AV176" s="1"/>
       <c r="AW176" s="1"/>
       <c r="AX176" s="1"/>
-    </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY176" s="1"/>
+    </row>
+    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -26073,8 +26247,9 @@
       <c r="AV177" s="1"/>
       <c r="AW177" s="1"/>
       <c r="AX177" s="1"/>
-    </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY177" s="1"/>
+    </row>
+    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -26125,8 +26300,9 @@
       <c r="AV178" s="1"/>
       <c r="AW178" s="1"/>
       <c r="AX178" s="1"/>
-    </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY178" s="1"/>
+    </row>
+    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -26177,8 +26353,9 @@
       <c r="AV179" s="1"/>
       <c r="AW179" s="1"/>
       <c r="AX179" s="1"/>
-    </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY179" s="1"/>
+    </row>
+    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -26229,8 +26406,9 @@
       <c r="AV180" s="1"/>
       <c r="AW180" s="1"/>
       <c r="AX180" s="1"/>
-    </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY180" s="1"/>
+    </row>
+    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -26281,8 +26459,9 @@
       <c r="AV181" s="1"/>
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
-    </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY181" s="1"/>
+    </row>
+    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -26333,8 +26512,9 @@
       <c r="AV182" s="1"/>
       <c r="AW182" s="1"/>
       <c r="AX182" s="1"/>
-    </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY182" s="1"/>
+    </row>
+    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -26385,8 +26565,9 @@
       <c r="AV183" s="1"/>
       <c r="AW183" s="1"/>
       <c r="AX183" s="1"/>
-    </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY183" s="1"/>
+    </row>
+    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -26437,8 +26618,9 @@
       <c r="AV184" s="1"/>
       <c r="AW184" s="1"/>
       <c r="AX184" s="1"/>
-    </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY184" s="1"/>
+    </row>
+    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -26489,8 +26671,9 @@
       <c r="AV185" s="1"/>
       <c r="AW185" s="1"/>
       <c r="AX185" s="1"/>
-    </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY185" s="1"/>
+    </row>
+    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -26541,8 +26724,9 @@
       <c r="AV186" s="1"/>
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
-    </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY186" s="1"/>
+    </row>
+    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -26593,8 +26777,9 @@
       <c r="AV187" s="1"/>
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
-    </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY187" s="1"/>
+    </row>
+    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -26645,8 +26830,9 @@
       <c r="AV188" s="1"/>
       <c r="AW188" s="1"/>
       <c r="AX188" s="1"/>
-    </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY188" s="1"/>
+    </row>
+    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -26697,8 +26883,9 @@
       <c r="AV189" s="1"/>
       <c r="AW189" s="1"/>
       <c r="AX189" s="1"/>
-    </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY189" s="1"/>
+    </row>
+    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -26749,8 +26936,9 @@
       <c r="AV190" s="1"/>
       <c r="AW190" s="1"/>
       <c r="AX190" s="1"/>
-    </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY190" s="1"/>
+    </row>
+    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -26801,8 +26989,9 @@
       <c r="AV191" s="1"/>
       <c r="AW191" s="1"/>
       <c r="AX191" s="1"/>
-    </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY191" s="1"/>
+    </row>
+    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -26853,8 +27042,9 @@
       <c r="AV192" s="1"/>
       <c r="AW192" s="1"/>
       <c r="AX192" s="1"/>
-    </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY192" s="1"/>
+    </row>
+    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -26905,8 +27095,9 @@
       <c r="AV193" s="1"/>
       <c r="AW193" s="1"/>
       <c r="AX193" s="1"/>
-    </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY193" s="1"/>
+    </row>
+    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -26957,8 +27148,9 @@
       <c r="AV194" s="1"/>
       <c r="AW194" s="1"/>
       <c r="AX194" s="1"/>
-    </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY194" s="1"/>
+    </row>
+    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -27009,8 +27201,9 @@
       <c r="AV195" s="1"/>
       <c r="AW195" s="1"/>
       <c r="AX195" s="1"/>
-    </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY195" s="1"/>
+    </row>
+    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -27061,8 +27254,9 @@
       <c r="AV196" s="1"/>
       <c r="AW196" s="1"/>
       <c r="AX196" s="1"/>
-    </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY196" s="1"/>
+    </row>
+    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -27113,8 +27307,9 @@
       <c r="AV197" s="1"/>
       <c r="AW197" s="1"/>
       <c r="AX197" s="1"/>
-    </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY197" s="1"/>
+    </row>
+    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -27165,8 +27360,9 @@
       <c r="AV198" s="1"/>
       <c r="AW198" s="1"/>
       <c r="AX198" s="1"/>
-    </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY198" s="1"/>
+    </row>
+    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -27217,8 +27413,9 @@
       <c r="AV199" s="1"/>
       <c r="AW199" s="1"/>
       <c r="AX199" s="1"/>
-    </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY199" s="1"/>
+    </row>
+    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -27269,8 +27466,9 @@
       <c r="AV200" s="1"/>
       <c r="AW200" s="1"/>
       <c r="AX200" s="1"/>
-    </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY200" s="1"/>
+    </row>
+    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -27321,8 +27519,9 @@
       <c r="AV201" s="1"/>
       <c r="AW201" s="1"/>
       <c r="AX201" s="1"/>
-    </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY201" s="1"/>
+    </row>
+    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -27373,8 +27572,9 @@
       <c r="AV202" s="1"/>
       <c r="AW202" s="1"/>
       <c r="AX202" s="1"/>
-    </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY202" s="1"/>
+    </row>
+    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -27425,8 +27625,9 @@
       <c r="AV203" s="1"/>
       <c r="AW203" s="1"/>
       <c r="AX203" s="1"/>
-    </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY203" s="1"/>
+    </row>
+    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -27477,8 +27678,9 @@
       <c r="AV204" s="1"/>
       <c r="AW204" s="1"/>
       <c r="AX204" s="1"/>
-    </row>
-    <row r="205" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY204" s="1"/>
+    </row>
+    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -27529,8 +27731,9 @@
       <c r="AV205" s="1"/>
       <c r="AW205" s="1"/>
       <c r="AX205" s="1"/>
-    </row>
-    <row r="206" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY205" s="1"/>
+    </row>
+    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -27581,8 +27784,9 @@
       <c r="AV206" s="1"/>
       <c r="AW206" s="1"/>
       <c r="AX206" s="1"/>
-    </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY206" s="1"/>
+    </row>
+    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -27633,8 +27837,9 @@
       <c r="AV207" s="1"/>
       <c r="AW207" s="1"/>
       <c r="AX207" s="1"/>
-    </row>
-    <row r="208" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY207" s="1"/>
+    </row>
+    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -27685,8 +27890,9 @@
       <c r="AV208" s="1"/>
       <c r="AW208" s="1"/>
       <c r="AX208" s="1"/>
-    </row>
-    <row r="209" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY208" s="1"/>
+    </row>
+    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -27737,8 +27943,9 @@
       <c r="AV209" s="1"/>
       <c r="AW209" s="1"/>
       <c r="AX209" s="1"/>
-    </row>
-    <row r="210" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY209" s="1"/>
+    </row>
+    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -27789,8 +27996,9 @@
       <c r="AV210" s="1"/>
       <c r="AW210" s="1"/>
       <c r="AX210" s="1"/>
-    </row>
-    <row r="211" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY210" s="1"/>
+    </row>
+    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -27841,8 +28049,9 @@
       <c r="AV211" s="1"/>
       <c r="AW211" s="1"/>
       <c r="AX211" s="1"/>
-    </row>
-    <row r="212" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY211" s="1"/>
+    </row>
+    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -27893,8 +28102,9 @@
       <c r="AV212" s="1"/>
       <c r="AW212" s="1"/>
       <c r="AX212" s="1"/>
-    </row>
-    <row r="213" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY212" s="1"/>
+    </row>
+    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -27945,8 +28155,9 @@
       <c r="AV213" s="1"/>
       <c r="AW213" s="1"/>
       <c r="AX213" s="1"/>
-    </row>
-    <row r="214" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY213" s="1"/>
+    </row>
+    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -27997,8 +28208,9 @@
       <c r="AV214" s="1"/>
       <c r="AW214" s="1"/>
       <c r="AX214" s="1"/>
-    </row>
-    <row r="215" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY214" s="1"/>
+    </row>
+    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -28049,8 +28261,9 @@
       <c r="AV215" s="1"/>
       <c r="AW215" s="1"/>
       <c r="AX215" s="1"/>
-    </row>
-    <row r="216" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY215" s="1"/>
+    </row>
+    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -28101,8 +28314,9 @@
       <c r="AV216" s="1"/>
       <c r="AW216" s="1"/>
       <c r="AX216" s="1"/>
-    </row>
-    <row r="217" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY216" s="1"/>
+    </row>
+    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -28153,8 +28367,9 @@
       <c r="AV217" s="1"/>
       <c r="AW217" s="1"/>
       <c r="AX217" s="1"/>
-    </row>
-    <row r="218" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY217" s="1"/>
+    </row>
+    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -28205,8 +28420,9 @@
       <c r="AV218" s="1"/>
       <c r="AW218" s="1"/>
       <c r="AX218" s="1"/>
-    </row>
-    <row r="219" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY218" s="1"/>
+    </row>
+    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -28257,8 +28473,9 @@
       <c r="AV219" s="1"/>
       <c r="AW219" s="1"/>
       <c r="AX219" s="1"/>
-    </row>
-    <row r="220" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY219" s="1"/>
+    </row>
+    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -28309,8 +28526,9 @@
       <c r="AV220" s="1"/>
       <c r="AW220" s="1"/>
       <c r="AX220" s="1"/>
-    </row>
-    <row r="221" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY220" s="1"/>
+    </row>
+    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -28361,8 +28579,9 @@
       <c r="AV221" s="1"/>
       <c r="AW221" s="1"/>
       <c r="AX221" s="1"/>
-    </row>
-    <row r="222" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY221" s="1"/>
+    </row>
+    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -28413,8 +28632,9 @@
       <c r="AV222" s="1"/>
       <c r="AW222" s="1"/>
       <c r="AX222" s="1"/>
-    </row>
-    <row r="223" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY222" s="1"/>
+    </row>
+    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -28465,8 +28685,9 @@
       <c r="AV223" s="1"/>
       <c r="AW223" s="1"/>
       <c r="AX223" s="1"/>
-    </row>
-    <row r="224" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY223" s="1"/>
+    </row>
+    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -28517,8 +28738,9 @@
       <c r="AV224" s="1"/>
       <c r="AW224" s="1"/>
       <c r="AX224" s="1"/>
-    </row>
-    <row r="225" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY224" s="1"/>
+    </row>
+    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -28569,8 +28791,9 @@
       <c r="AV225" s="1"/>
       <c r="AW225" s="1"/>
       <c r="AX225" s="1"/>
-    </row>
-    <row r="226" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY225" s="1"/>
+    </row>
+    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -28621,8 +28844,9 @@
       <c r="AV226" s="1"/>
       <c r="AW226" s="1"/>
       <c r="AX226" s="1"/>
-    </row>
-    <row r="227" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY226" s="1"/>
+    </row>
+    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -28673,8 +28897,9 @@
       <c r="AV227" s="1"/>
       <c r="AW227" s="1"/>
       <c r="AX227" s="1"/>
-    </row>
-    <row r="228" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY227" s="1"/>
+    </row>
+    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -28725,8 +28950,9 @@
       <c r="AV228" s="1"/>
       <c r="AW228" s="1"/>
       <c r="AX228" s="1"/>
-    </row>
-    <row r="229" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY228" s="1"/>
+    </row>
+    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -28777,8 +29003,9 @@
       <c r="AV229" s="1"/>
       <c r="AW229" s="1"/>
       <c r="AX229" s="1"/>
-    </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY229" s="1"/>
+    </row>
+    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -28829,8 +29056,9 @@
       <c r="AV230" s="1"/>
       <c r="AW230" s="1"/>
       <c r="AX230" s="1"/>
-    </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY230" s="1"/>
+    </row>
+    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -28881,8 +29109,9 @@
       <c r="AV231" s="1"/>
       <c r="AW231" s="1"/>
       <c r="AX231" s="1"/>
-    </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY231" s="1"/>
+    </row>
+    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -28933,8 +29162,9 @@
       <c r="AV232" s="1"/>
       <c r="AW232" s="1"/>
       <c r="AX232" s="1"/>
-    </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY232" s="1"/>
+    </row>
+    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -28985,8 +29215,9 @@
       <c r="AV233" s="1"/>
       <c r="AW233" s="1"/>
       <c r="AX233" s="1"/>
-    </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY233" s="1"/>
+    </row>
+    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -29037,8 +29268,9 @@
       <c r="AV234" s="1"/>
       <c r="AW234" s="1"/>
       <c r="AX234" s="1"/>
-    </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY234" s="1"/>
+    </row>
+    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -29089,8 +29321,9 @@
       <c r="AV235" s="1"/>
       <c r="AW235" s="1"/>
       <c r="AX235" s="1"/>
-    </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY235" s="1"/>
+    </row>
+    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -29141,8 +29374,9 @@
       <c r="AV236" s="1"/>
       <c r="AW236" s="1"/>
       <c r="AX236" s="1"/>
-    </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY236" s="1"/>
+    </row>
+    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -29193,8 +29427,9 @@
       <c r="AV237" s="1"/>
       <c r="AW237" s="1"/>
       <c r="AX237" s="1"/>
-    </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY237" s="1"/>
+    </row>
+    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -29245,8 +29480,9 @@
       <c r="AV238" s="1"/>
       <c r="AW238" s="1"/>
       <c r="AX238" s="1"/>
-    </row>
-    <row r="239" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY238" s="1"/>
+    </row>
+    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -29297,8 +29533,9 @@
       <c r="AV239" s="1"/>
       <c r="AW239" s="1"/>
       <c r="AX239" s="1"/>
-    </row>
-    <row r="240" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY239" s="1"/>
+    </row>
+    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -29349,8 +29586,9 @@
       <c r="AV240" s="1"/>
       <c r="AW240" s="1"/>
       <c r="AX240" s="1"/>
-    </row>
-    <row r="241" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY240" s="1"/>
+    </row>
+    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -29401,8 +29639,9 @@
       <c r="AV241" s="1"/>
       <c r="AW241" s="1"/>
       <c r="AX241" s="1"/>
-    </row>
-    <row r="242" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY241" s="1"/>
+    </row>
+    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -29453,8 +29692,9 @@
       <c r="AV242" s="1"/>
       <c r="AW242" s="1"/>
       <c r="AX242" s="1"/>
-    </row>
-    <row r="243" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY242" s="1"/>
+    </row>
+    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -29505,8 +29745,9 @@
       <c r="AV243" s="1"/>
       <c r="AW243" s="1"/>
       <c r="AX243" s="1"/>
-    </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY243" s="1"/>
+    </row>
+    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -29557,8 +29798,9 @@
       <c r="AV244" s="1"/>
       <c r="AW244" s="1"/>
       <c r="AX244" s="1"/>
-    </row>
-    <row r="245" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY244" s="1"/>
+    </row>
+    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -29609,8 +29851,9 @@
       <c r="AV245" s="1"/>
       <c r="AW245" s="1"/>
       <c r="AX245" s="1"/>
-    </row>
-    <row r="246" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY245" s="1"/>
+    </row>
+    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -29661,8 +29904,9 @@
       <c r="AV246" s="1"/>
       <c r="AW246" s="1"/>
       <c r="AX246" s="1"/>
-    </row>
-    <row r="247" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY246" s="1"/>
+    </row>
+    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -29713,8 +29957,9 @@
       <c r="AV247" s="1"/>
       <c r="AW247" s="1"/>
       <c r="AX247" s="1"/>
-    </row>
-    <row r="248" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY247" s="1"/>
+    </row>
+    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -29765,8 +30010,9 @@
       <c r="AV248" s="1"/>
       <c r="AW248" s="1"/>
       <c r="AX248" s="1"/>
-    </row>
-    <row r="249" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY248" s="1"/>
+    </row>
+    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -29817,8 +30063,9 @@
       <c r="AV249" s="1"/>
       <c r="AW249" s="1"/>
       <c r="AX249" s="1"/>
-    </row>
-    <row r="250" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY249" s="1"/>
+    </row>
+    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -29869,8 +30116,9 @@
       <c r="AV250" s="1"/>
       <c r="AW250" s="1"/>
       <c r="AX250" s="1"/>
-    </row>
-    <row r="251" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY250" s="1"/>
+    </row>
+    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -29921,8 +30169,9 @@
       <c r="AV251" s="1"/>
       <c r="AW251" s="1"/>
       <c r="AX251" s="1"/>
-    </row>
-    <row r="252" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY251" s="1"/>
+    </row>
+    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -29973,8 +30222,9 @@
       <c r="AV252" s="1"/>
       <c r="AW252" s="1"/>
       <c r="AX252" s="1"/>
-    </row>
-    <row r="253" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY252" s="1"/>
+    </row>
+    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -30025,8 +30275,9 @@
       <c r="AV253" s="1"/>
       <c r="AW253" s="1"/>
       <c r="AX253" s="1"/>
-    </row>
-    <row r="254" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY253" s="1"/>
+    </row>
+    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -30077,8 +30328,9 @@
       <c r="AV254" s="1"/>
       <c r="AW254" s="1"/>
       <c r="AX254" s="1"/>
-    </row>
-    <row r="255" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY254" s="1"/>
+    </row>
+    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -30129,8 +30381,9 @@
       <c r="AV255" s="1"/>
       <c r="AW255" s="1"/>
       <c r="AX255" s="1"/>
-    </row>
-    <row r="256" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY255" s="1"/>
+    </row>
+    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -30181,8 +30434,9 @@
       <c r="AV256" s="1"/>
       <c r="AW256" s="1"/>
       <c r="AX256" s="1"/>
-    </row>
-    <row r="257" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY256" s="1"/>
+    </row>
+    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -30233,8 +30487,9 @@
       <c r="AV257" s="1"/>
       <c r="AW257" s="1"/>
       <c r="AX257" s="1"/>
-    </row>
-    <row r="258" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY257" s="1"/>
+    </row>
+    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -30285,8 +30540,9 @@
       <c r="AV258" s="1"/>
       <c r="AW258" s="1"/>
       <c r="AX258" s="1"/>
-    </row>
-    <row r="259" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY258" s="1"/>
+    </row>
+    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -30337,8 +30593,9 @@
       <c r="AV259" s="1"/>
       <c r="AW259" s="1"/>
       <c r="AX259" s="1"/>
-    </row>
-    <row r="260" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY259" s="1"/>
+    </row>
+    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -30389,8 +30646,9 @@
       <c r="AV260" s="1"/>
       <c r="AW260" s="1"/>
       <c r="AX260" s="1"/>
-    </row>
-    <row r="261" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY260" s="1"/>
+    </row>
+    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -30441,8 +30699,9 @@
       <c r="AV261" s="1"/>
       <c r="AW261" s="1"/>
       <c r="AX261" s="1"/>
-    </row>
-    <row r="262" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY261" s="1"/>
+    </row>
+    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -30493,8 +30752,9 @@
       <c r="AV262" s="1"/>
       <c r="AW262" s="1"/>
       <c r="AX262" s="1"/>
-    </row>
-    <row r="263" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY262" s="1"/>
+    </row>
+    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -30545,8 +30805,9 @@
       <c r="AV263" s="1"/>
       <c r="AW263" s="1"/>
       <c r="AX263" s="1"/>
-    </row>
-    <row r="264" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY263" s="1"/>
+    </row>
+    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -30597,8 +30858,9 @@
       <c r="AV264" s="1"/>
       <c r="AW264" s="1"/>
       <c r="AX264" s="1"/>
-    </row>
-    <row r="265" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY264" s="1"/>
+    </row>
+    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -30649,8 +30911,9 @@
       <c r="AV265" s="1"/>
       <c r="AW265" s="1"/>
       <c r="AX265" s="1"/>
-    </row>
-    <row r="266" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY265" s="1"/>
+    </row>
+    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -30701,8 +30964,9 @@
       <c r="AV266" s="1"/>
       <c r="AW266" s="1"/>
       <c r="AX266" s="1"/>
-    </row>
-    <row r="267" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY266" s="1"/>
+    </row>
+    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -30753,8 +31017,9 @@
       <c r="AV267" s="1"/>
       <c r="AW267" s="1"/>
       <c r="AX267" s="1"/>
-    </row>
-    <row r="268" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY267" s="1"/>
+    </row>
+    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -30805,8 +31070,9 @@
       <c r="AV268" s="1"/>
       <c r="AW268" s="1"/>
       <c r="AX268" s="1"/>
-    </row>
-    <row r="269" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY268" s="1"/>
+    </row>
+    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -30857,8 +31123,9 @@
       <c r="AV269" s="1"/>
       <c r="AW269" s="1"/>
       <c r="AX269" s="1"/>
-    </row>
-    <row r="270" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY269" s="1"/>
+    </row>
+    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -30909,8 +31176,9 @@
       <c r="AV270" s="1"/>
       <c r="AW270" s="1"/>
       <c r="AX270" s="1"/>
-    </row>
-    <row r="271" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY270" s="1"/>
+    </row>
+    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -30961,8 +31229,9 @@
       <c r="AV271" s="1"/>
       <c r="AW271" s="1"/>
       <c r="AX271" s="1"/>
-    </row>
-    <row r="272" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY271" s="1"/>
+    </row>
+    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -31013,8 +31282,9 @@
       <c r="AV272" s="1"/>
       <c r="AW272" s="1"/>
       <c r="AX272" s="1"/>
-    </row>
-    <row r="273" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY272" s="1"/>
+    </row>
+    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -31065,8 +31335,9 @@
       <c r="AV273" s="1"/>
       <c r="AW273" s="1"/>
       <c r="AX273" s="1"/>
-    </row>
-    <row r="274" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY273" s="1"/>
+    </row>
+    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -31117,8 +31388,9 @@
       <c r="AV274" s="1"/>
       <c r="AW274" s="1"/>
       <c r="AX274" s="1"/>
-    </row>
-    <row r="275" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY274" s="1"/>
+    </row>
+    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -31169,8 +31441,9 @@
       <c r="AV275" s="1"/>
       <c r="AW275" s="1"/>
       <c r="AX275" s="1"/>
-    </row>
-    <row r="276" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY275" s="1"/>
+    </row>
+    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -31221,8 +31494,9 @@
       <c r="AV276" s="1"/>
       <c r="AW276" s="1"/>
       <c r="AX276" s="1"/>
-    </row>
-    <row r="277" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY276" s="1"/>
+    </row>
+    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -31273,8 +31547,9 @@
       <c r="AV277" s="1"/>
       <c r="AW277" s="1"/>
       <c r="AX277" s="1"/>
-    </row>
-    <row r="278" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY277" s="1"/>
+    </row>
+    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -31325,8 +31600,9 @@
       <c r="AV278" s="1"/>
       <c r="AW278" s="1"/>
       <c r="AX278" s="1"/>
-    </row>
-    <row r="279" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY278" s="1"/>
+    </row>
+    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -31377,8 +31653,9 @@
       <c r="AV279" s="1"/>
       <c r="AW279" s="1"/>
       <c r="AX279" s="1"/>
-    </row>
-    <row r="280" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY279" s="1"/>
+    </row>
+    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -31429,8 +31706,9 @@
       <c r="AV280" s="1"/>
       <c r="AW280" s="1"/>
       <c r="AX280" s="1"/>
-    </row>
-    <row r="281" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY280" s="1"/>
+    </row>
+    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -31481,8 +31759,9 @@
       <c r="AV281" s="1"/>
       <c r="AW281" s="1"/>
       <c r="AX281" s="1"/>
-    </row>
-    <row r="282" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY281" s="1"/>
+    </row>
+    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -31533,8 +31812,9 @@
       <c r="AV282" s="1"/>
       <c r="AW282" s="1"/>
       <c r="AX282" s="1"/>
-    </row>
-    <row r="283" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY282" s="1"/>
+    </row>
+    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -31585,8 +31865,9 @@
       <c r="AV283" s="1"/>
       <c r="AW283" s="1"/>
       <c r="AX283" s="1"/>
-    </row>
-    <row r="284" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY283" s="1"/>
+    </row>
+    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -31637,8 +31918,9 @@
       <c r="AV284" s="1"/>
       <c r="AW284" s="1"/>
       <c r="AX284" s="1"/>
-    </row>
-    <row r="285" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY284" s="1"/>
+    </row>
+    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -31689,8 +31971,9 @@
       <c r="AV285" s="1"/>
       <c r="AW285" s="1"/>
       <c r="AX285" s="1"/>
-    </row>
-    <row r="286" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY285" s="1"/>
+    </row>
+    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -31741,8 +32024,9 @@
       <c r="AV286" s="1"/>
       <c r="AW286" s="1"/>
       <c r="AX286" s="1"/>
-    </row>
-    <row r="287" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY286" s="1"/>
+    </row>
+    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -31793,8 +32077,9 @@
       <c r="AV287" s="1"/>
       <c r="AW287" s="1"/>
       <c r="AX287" s="1"/>
-    </row>
-    <row r="288" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY287" s="1"/>
+    </row>
+    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -31845,8 +32130,9 @@
       <c r="AV288" s="1"/>
       <c r="AW288" s="1"/>
       <c r="AX288" s="1"/>
-    </row>
-    <row r="289" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY288" s="1"/>
+    </row>
+    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -31897,8 +32183,9 @@
       <c r="AV289" s="1"/>
       <c r="AW289" s="1"/>
       <c r="AX289" s="1"/>
-    </row>
-    <row r="290" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY289" s="1"/>
+    </row>
+    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -31949,8 +32236,9 @@
       <c r="AV290" s="1"/>
       <c r="AW290" s="1"/>
       <c r="AX290" s="1"/>
-    </row>
-    <row r="291" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY290" s="1"/>
+    </row>
+    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -32001,8 +32289,9 @@
       <c r="AV291" s="1"/>
       <c r="AW291" s="1"/>
       <c r="AX291" s="1"/>
-    </row>
-    <row r="292" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY291" s="1"/>
+    </row>
+    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -32053,8 +32342,9 @@
       <c r="AV292" s="1"/>
       <c r="AW292" s="1"/>
       <c r="AX292" s="1"/>
-    </row>
-    <row r="293" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY292" s="1"/>
+    </row>
+    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -32105,8 +32395,9 @@
       <c r="AV293" s="1"/>
       <c r="AW293" s="1"/>
       <c r="AX293" s="1"/>
-    </row>
-    <row r="294" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY293" s="1"/>
+    </row>
+    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -32157,8 +32448,9 @@
       <c r="AV294" s="1"/>
       <c r="AW294" s="1"/>
       <c r="AX294" s="1"/>
-    </row>
-    <row r="295" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY294" s="1"/>
+    </row>
+    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -32209,8 +32501,9 @@
       <c r="AV295" s="1"/>
       <c r="AW295" s="1"/>
       <c r="AX295" s="1"/>
-    </row>
-    <row r="296" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY295" s="1"/>
+    </row>
+    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -32261,8 +32554,9 @@
       <c r="AV296" s="1"/>
       <c r="AW296" s="1"/>
       <c r="AX296" s="1"/>
-    </row>
-    <row r="297" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY296" s="1"/>
+    </row>
+    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -32313,8 +32607,9 @@
       <c r="AV297" s="1"/>
       <c r="AW297" s="1"/>
       <c r="AX297" s="1"/>
-    </row>
-    <row r="298" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY297" s="1"/>
+    </row>
+    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -32365,8 +32660,9 @@
       <c r="AV298" s="1"/>
       <c r="AW298" s="1"/>
       <c r="AX298" s="1"/>
-    </row>
-    <row r="299" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY298" s="1"/>
+    </row>
+    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -32417,8 +32713,9 @@
       <c r="AV299" s="1"/>
       <c r="AW299" s="1"/>
       <c r="AX299" s="1"/>
-    </row>
-    <row r="300" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY299" s="1"/>
+    </row>
+    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -32469,8 +32766,9 @@
       <c r="AV300" s="1"/>
       <c r="AW300" s="1"/>
       <c r="AX300" s="1"/>
-    </row>
-    <row r="301" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY300" s="1"/>
+    </row>
+    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -32521,8 +32819,9 @@
       <c r="AV301" s="1"/>
       <c r="AW301" s="1"/>
       <c r="AX301" s="1"/>
-    </row>
-    <row r="302" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY301" s="1"/>
+    </row>
+    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -32573,8 +32872,9 @@
       <c r="AV302" s="1"/>
       <c r="AW302" s="1"/>
       <c r="AX302" s="1"/>
-    </row>
-    <row r="303" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY302" s="1"/>
+    </row>
+    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -32625,8 +32925,9 @@
       <c r="AV303" s="1"/>
       <c r="AW303" s="1"/>
       <c r="AX303" s="1"/>
-    </row>
-    <row r="304" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY303" s="1"/>
+    </row>
+    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -32677,8 +32978,9 @@
       <c r="AV304" s="1"/>
       <c r="AW304" s="1"/>
       <c r="AX304" s="1"/>
-    </row>
-    <row r="305" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY304" s="1"/>
+    </row>
+    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -32729,8 +33031,9 @@
       <c r="AV305" s="1"/>
       <c r="AW305" s="1"/>
       <c r="AX305" s="1"/>
-    </row>
-    <row r="306" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY305" s="1"/>
+    </row>
+    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -32781,8 +33084,9 @@
       <c r="AV306" s="1"/>
       <c r="AW306" s="1"/>
       <c r="AX306" s="1"/>
-    </row>
-    <row r="307" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY306" s="1"/>
+    </row>
+    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -32833,8 +33137,9 @@
       <c r="AV307" s="1"/>
       <c r="AW307" s="1"/>
       <c r="AX307" s="1"/>
-    </row>
-    <row r="308" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY307" s="1"/>
+    </row>
+    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -32885,8 +33190,9 @@
       <c r="AV308" s="1"/>
       <c r="AW308" s="1"/>
       <c r="AX308" s="1"/>
-    </row>
-    <row r="309" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY308" s="1"/>
+    </row>
+    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -32937,8 +33243,9 @@
       <c r="AV309" s="1"/>
       <c r="AW309" s="1"/>
       <c r="AX309" s="1"/>
-    </row>
-    <row r="310" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY309" s="1"/>
+    </row>
+    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -32989,8 +33296,9 @@
       <c r="AV310" s="1"/>
       <c r="AW310" s="1"/>
       <c r="AX310" s="1"/>
-    </row>
-    <row r="311" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY310" s="1"/>
+    </row>
+    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -33041,8 +33349,9 @@
       <c r="AV311" s="1"/>
       <c r="AW311" s="1"/>
       <c r="AX311" s="1"/>
-    </row>
-    <row r="312" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY311" s="1"/>
+    </row>
+    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -33093,8 +33402,9 @@
       <c r="AV312" s="1"/>
       <c r="AW312" s="1"/>
       <c r="AX312" s="1"/>
-    </row>
-    <row r="313" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY312" s="1"/>
+    </row>
+    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -33145,8 +33455,9 @@
       <c r="AV313" s="1"/>
       <c r="AW313" s="1"/>
       <c r="AX313" s="1"/>
-    </row>
-    <row r="314" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY313" s="1"/>
+    </row>
+    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -33197,8 +33508,9 @@
       <c r="AV314" s="1"/>
       <c r="AW314" s="1"/>
       <c r="AX314" s="1"/>
-    </row>
-    <row r="315" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY314" s="1"/>
+    </row>
+    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -33249,8 +33561,9 @@
       <c r="AV315" s="1"/>
       <c r="AW315" s="1"/>
       <c r="AX315" s="1"/>
-    </row>
-    <row r="316" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY315" s="1"/>
+    </row>
+    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -33301,8 +33614,9 @@
       <c r="AV316" s="1"/>
       <c r="AW316" s="1"/>
       <c r="AX316" s="1"/>
-    </row>
-    <row r="317" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY316" s="1"/>
+    </row>
+    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -33353,8 +33667,9 @@
       <c r="AV317" s="1"/>
       <c r="AW317" s="1"/>
       <c r="AX317" s="1"/>
-    </row>
-    <row r="318" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY317" s="1"/>
+    </row>
+    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -33405,8 +33720,9 @@
       <c r="AV318" s="1"/>
       <c r="AW318" s="1"/>
       <c r="AX318" s="1"/>
-    </row>
-    <row r="319" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY318" s="1"/>
+    </row>
+    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -33457,8 +33773,9 @@
       <c r="AV319" s="1"/>
       <c r="AW319" s="1"/>
       <c r="AX319" s="1"/>
-    </row>
-    <row r="320" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY319" s="1"/>
+    </row>
+    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -33509,8 +33826,9 @@
       <c r="AV320" s="1"/>
       <c r="AW320" s="1"/>
       <c r="AX320" s="1"/>
-    </row>
-    <row r="321" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY320" s="1"/>
+    </row>
+    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -33561,8 +33879,9 @@
       <c r="AV321" s="1"/>
       <c r="AW321" s="1"/>
       <c r="AX321" s="1"/>
-    </row>
-    <row r="322" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY321" s="1"/>
+    </row>
+    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -33613,8 +33932,9 @@
       <c r="AV322" s="1"/>
       <c r="AW322" s="1"/>
       <c r="AX322" s="1"/>
-    </row>
-    <row r="323" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY322" s="1"/>
+    </row>
+    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -33665,8 +33985,9 @@
       <c r="AV323" s="1"/>
       <c r="AW323" s="1"/>
       <c r="AX323" s="1"/>
-    </row>
-    <row r="324" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY323" s="1"/>
+    </row>
+    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -33717,8 +34038,9 @@
       <c r="AV324" s="1"/>
       <c r="AW324" s="1"/>
       <c r="AX324" s="1"/>
-    </row>
-    <row r="325" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY324" s="1"/>
+    </row>
+    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -33769,8 +34091,9 @@
       <c r="AV325" s="1"/>
       <c r="AW325" s="1"/>
       <c r="AX325" s="1"/>
-    </row>
-    <row r="326" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY325" s="1"/>
+    </row>
+    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -33821,8 +34144,9 @@
       <c r="AV326" s="1"/>
       <c r="AW326" s="1"/>
       <c r="AX326" s="1"/>
-    </row>
-    <row r="327" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY326" s="1"/>
+    </row>
+    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -33873,8 +34197,9 @@
       <c r="AV327" s="1"/>
       <c r="AW327" s="1"/>
       <c r="AX327" s="1"/>
-    </row>
-    <row r="328" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY327" s="1"/>
+    </row>
+    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -33925,8 +34250,9 @@
       <c r="AV328" s="1"/>
       <c r="AW328" s="1"/>
       <c r="AX328" s="1"/>
-    </row>
-    <row r="329" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY328" s="1"/>
+    </row>
+    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -33977,8 +34303,9 @@
       <c r="AV329" s="1"/>
       <c r="AW329" s="1"/>
       <c r="AX329" s="1"/>
-    </row>
-    <row r="330" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY329" s="1"/>
+    </row>
+    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -34029,8 +34356,9 @@
       <c r="AV330" s="1"/>
       <c r="AW330" s="1"/>
       <c r="AX330" s="1"/>
-    </row>
-    <row r="331" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY330" s="1"/>
+    </row>
+    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -34081,8 +34409,9 @@
       <c r="AV331" s="1"/>
       <c r="AW331" s="1"/>
       <c r="AX331" s="1"/>
-    </row>
-    <row r="332" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY331" s="1"/>
+    </row>
+    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -34133,8 +34462,9 @@
       <c r="AV332" s="1"/>
       <c r="AW332" s="1"/>
       <c r="AX332" s="1"/>
-    </row>
-    <row r="333" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY332" s="1"/>
+    </row>
+    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -34185,8 +34515,9 @@
       <c r="AV333" s="1"/>
       <c r="AW333" s="1"/>
       <c r="AX333" s="1"/>
-    </row>
-    <row r="334" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY333" s="1"/>
+    </row>
+    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -34237,8 +34568,9 @@
       <c r="AV334" s="1"/>
       <c r="AW334" s="1"/>
       <c r="AX334" s="1"/>
-    </row>
-    <row r="335" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY334" s="1"/>
+    </row>
+    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -34289,8 +34621,9 @@
       <c r="AV335" s="1"/>
       <c r="AW335" s="1"/>
       <c r="AX335" s="1"/>
-    </row>
-    <row r="336" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY335" s="1"/>
+    </row>
+    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -34341,8 +34674,9 @@
       <c r="AV336" s="1"/>
       <c r="AW336" s="1"/>
       <c r="AX336" s="1"/>
-    </row>
-    <row r="337" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY336" s="1"/>
+    </row>
+    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -34393,8 +34727,9 @@
       <c r="AV337" s="1"/>
       <c r="AW337" s="1"/>
       <c r="AX337" s="1"/>
-    </row>
-    <row r="338" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY337" s="1"/>
+    </row>
+    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -34445,8 +34780,9 @@
       <c r="AV338" s="1"/>
       <c r="AW338" s="1"/>
       <c r="AX338" s="1"/>
-    </row>
-    <row r="339" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY338" s="1"/>
+    </row>
+    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -34497,8 +34833,9 @@
       <c r="AV339" s="1"/>
       <c r="AW339" s="1"/>
       <c r="AX339" s="1"/>
-    </row>
-    <row r="340" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY339" s="1"/>
+    </row>
+    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -34549,8 +34886,9 @@
       <c r="AV340" s="1"/>
       <c r="AW340" s="1"/>
       <c r="AX340" s="1"/>
-    </row>
-    <row r="341" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY340" s="1"/>
+    </row>
+    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -34601,8 +34939,9 @@
       <c r="AV341" s="1"/>
       <c r="AW341" s="1"/>
       <c r="AX341" s="1"/>
-    </row>
-    <row r="342" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY341" s="1"/>
+    </row>
+    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -34653,8 +34992,9 @@
       <c r="AV342" s="1"/>
       <c r="AW342" s="1"/>
       <c r="AX342" s="1"/>
-    </row>
-    <row r="343" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY342" s="1"/>
+    </row>
+    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -34705,8 +35045,9 @@
       <c r="AV343" s="1"/>
       <c r="AW343" s="1"/>
       <c r="AX343" s="1"/>
-    </row>
-    <row r="344" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY343" s="1"/>
+    </row>
+    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -34757,8 +35098,9 @@
       <c r="AV344" s="1"/>
       <c r="AW344" s="1"/>
       <c r="AX344" s="1"/>
-    </row>
-    <row r="345" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY344" s="1"/>
+    </row>
+    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -34809,8 +35151,9 @@
       <c r="AV345" s="1"/>
       <c r="AW345" s="1"/>
       <c r="AX345" s="1"/>
-    </row>
-    <row r="346" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY345" s="1"/>
+    </row>
+    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -34861,8 +35204,9 @@
       <c r="AV346" s="1"/>
       <c r="AW346" s="1"/>
       <c r="AX346" s="1"/>
-    </row>
-    <row r="347" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY346" s="1"/>
+    </row>
+    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -34913,8 +35257,9 @@
       <c r="AV347" s="1"/>
       <c r="AW347" s="1"/>
       <c r="AX347" s="1"/>
-    </row>
-    <row r="348" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY347" s="1"/>
+    </row>
+    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -34965,8 +35310,9 @@
       <c r="AV348" s="1"/>
       <c r="AW348" s="1"/>
       <c r="AX348" s="1"/>
-    </row>
-    <row r="349" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY348" s="1"/>
+    </row>
+    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -35017,8 +35363,9 @@
       <c r="AV349" s="1"/>
       <c r="AW349" s="1"/>
       <c r="AX349" s="1"/>
-    </row>
-    <row r="350" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY349" s="1"/>
+    </row>
+    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -35069,8 +35416,9 @@
       <c r="AV350" s="1"/>
       <c r="AW350" s="1"/>
       <c r="AX350" s="1"/>
-    </row>
-    <row r="351" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY350" s="1"/>
+    </row>
+    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -35121,8 +35469,9 @@
       <c r="AV351" s="1"/>
       <c r="AW351" s="1"/>
       <c r="AX351" s="1"/>
-    </row>
-    <row r="352" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY351" s="1"/>
+    </row>
+    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -35173,8 +35522,9 @@
       <c r="AV352" s="1"/>
       <c r="AW352" s="1"/>
       <c r="AX352" s="1"/>
-    </row>
-    <row r="353" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY352" s="1"/>
+    </row>
+    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -35225,8 +35575,9 @@
       <c r="AV353" s="1"/>
       <c r="AW353" s="1"/>
       <c r="AX353" s="1"/>
-    </row>
-    <row r="354" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY353" s="1"/>
+    </row>
+    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -35277,8 +35628,9 @@
       <c r="AV354" s="1"/>
       <c r="AW354" s="1"/>
       <c r="AX354" s="1"/>
-    </row>
-    <row r="355" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY354" s="1"/>
+    </row>
+    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -35329,8 +35681,9 @@
       <c r="AV355" s="1"/>
       <c r="AW355" s="1"/>
       <c r="AX355" s="1"/>
-    </row>
-    <row r="356" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY355" s="1"/>
+    </row>
+    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -35381,8 +35734,9 @@
       <c r="AV356" s="1"/>
       <c r="AW356" s="1"/>
       <c r="AX356" s="1"/>
-    </row>
-    <row r="357" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY356" s="1"/>
+    </row>
+    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -35433,8 +35787,9 @@
       <c r="AV357" s="1"/>
       <c r="AW357" s="1"/>
       <c r="AX357" s="1"/>
-    </row>
-    <row r="358" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY357" s="1"/>
+    </row>
+    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -35485,8 +35840,9 @@
       <c r="AV358" s="1"/>
       <c r="AW358" s="1"/>
       <c r="AX358" s="1"/>
-    </row>
-    <row r="359" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY358" s="1"/>
+    </row>
+    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -35537,8 +35893,9 @@
       <c r="AV359" s="1"/>
       <c r="AW359" s="1"/>
       <c r="AX359" s="1"/>
-    </row>
-    <row r="360" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY359" s="1"/>
+    </row>
+    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -35589,8 +35946,9 @@
       <c r="AV360" s="1"/>
       <c r="AW360" s="1"/>
       <c r="AX360" s="1"/>
-    </row>
-    <row r="361" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY360" s="1"/>
+    </row>
+    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -35641,8 +35999,9 @@
       <c r="AV361" s="1"/>
       <c r="AW361" s="1"/>
       <c r="AX361" s="1"/>
-    </row>
-    <row r="362" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY361" s="1"/>
+    </row>
+    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -35693,8 +36052,9 @@
       <c r="AV362" s="1"/>
       <c r="AW362" s="1"/>
       <c r="AX362" s="1"/>
-    </row>
-    <row r="363" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY362" s="1"/>
+    </row>
+    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -35745,8 +36105,9 @@
       <c r="AV363" s="1"/>
       <c r="AW363" s="1"/>
       <c r="AX363" s="1"/>
-    </row>
-    <row r="364" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY363" s="1"/>
+    </row>
+    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -35797,8 +36158,9 @@
       <c r="AV364" s="1"/>
       <c r="AW364" s="1"/>
       <c r="AX364" s="1"/>
-    </row>
-    <row r="365" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY364" s="1"/>
+    </row>
+    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -35849,8 +36211,9 @@
       <c r="AV365" s="1"/>
       <c r="AW365" s="1"/>
       <c r="AX365" s="1"/>
-    </row>
-    <row r="366" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY365" s="1"/>
+    </row>
+    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -35901,8 +36264,9 @@
       <c r="AV366" s="1"/>
       <c r="AW366" s="1"/>
       <c r="AX366" s="1"/>
-    </row>
-    <row r="367" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY366" s="1"/>
+    </row>
+    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -35953,8 +36317,9 @@
       <c r="AV367" s="1"/>
       <c r="AW367" s="1"/>
       <c r="AX367" s="1"/>
-    </row>
-    <row r="368" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY367" s="1"/>
+    </row>
+    <row r="368" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -36005,8 +36370,9 @@
       <c r="AV368" s="1"/>
       <c r="AW368" s="1"/>
       <c r="AX368" s="1"/>
-    </row>
-    <row r="369" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY368" s="1"/>
+    </row>
+    <row r="369" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -36057,8 +36423,9 @@
       <c r="AV369" s="1"/>
       <c r="AW369" s="1"/>
       <c r="AX369" s="1"/>
-    </row>
-    <row r="370" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY369" s="1"/>
+    </row>
+    <row r="370" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -36109,8 +36476,9 @@
       <c r="AV370" s="1"/>
       <c r="AW370" s="1"/>
       <c r="AX370" s="1"/>
-    </row>
-    <row r="371" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY370" s="1"/>
+    </row>
+    <row r="371" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -36161,8 +36529,9 @@
       <c r="AV371" s="1"/>
       <c r="AW371" s="1"/>
       <c r="AX371" s="1"/>
-    </row>
-    <row r="372" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY371" s="1"/>
+    </row>
+    <row r="372" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -36213,8 +36582,9 @@
       <c r="AV372" s="1"/>
       <c r="AW372" s="1"/>
       <c r="AX372" s="1"/>
-    </row>
-    <row r="373" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY372" s="1"/>
+    </row>
+    <row r="373" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -36265,8 +36635,9 @@
       <c r="AV373" s="1"/>
       <c r="AW373" s="1"/>
       <c r="AX373" s="1"/>
-    </row>
-    <row r="374" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY373" s="1"/>
+    </row>
+    <row r="374" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -36317,8 +36688,9 @@
       <c r="AV374" s="1"/>
       <c r="AW374" s="1"/>
       <c r="AX374" s="1"/>
-    </row>
-    <row r="375" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY374" s="1"/>
+    </row>
+    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -36369,8 +36741,9 @@
       <c r="AV375" s="1"/>
       <c r="AW375" s="1"/>
       <c r="AX375" s="1"/>
-    </row>
-    <row r="376" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY375" s="1"/>
+    </row>
+    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -36421,8 +36794,9 @@
       <c r="AV376" s="1"/>
       <c r="AW376" s="1"/>
       <c r="AX376" s="1"/>
-    </row>
-    <row r="377" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY376" s="1"/>
+    </row>
+    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -36473,8 +36847,9 @@
       <c r="AV377" s="1"/>
       <c r="AW377" s="1"/>
       <c r="AX377" s="1"/>
-    </row>
-    <row r="378" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY377" s="1"/>
+    </row>
+    <row r="378" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -36525,8 +36900,9 @@
       <c r="AV378" s="1"/>
       <c r="AW378" s="1"/>
       <c r="AX378" s="1"/>
-    </row>
-    <row r="379" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY378" s="1"/>
+    </row>
+    <row r="379" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -36577,8 +36953,9 @@
       <c r="AV379" s="1"/>
       <c r="AW379" s="1"/>
       <c r="AX379" s="1"/>
-    </row>
-    <row r="380" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY379" s="1"/>
+    </row>
+    <row r="380" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -36629,8 +37006,9 @@
       <c r="AV380" s="1"/>
       <c r="AW380" s="1"/>
       <c r="AX380" s="1"/>
-    </row>
-    <row r="381" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY380" s="1"/>
+    </row>
+    <row r="381" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -36681,8 +37059,9 @@
       <c r="AV381" s="1"/>
       <c r="AW381" s="1"/>
       <c r="AX381" s="1"/>
-    </row>
-    <row r="382" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY381" s="1"/>
+    </row>
+    <row r="382" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -36733,8 +37112,9 @@
       <c r="AV382" s="1"/>
       <c r="AW382" s="1"/>
       <c r="AX382" s="1"/>
-    </row>
-    <row r="383" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY382" s="1"/>
+    </row>
+    <row r="383" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -36785,8 +37165,9 @@
       <c r="AV383" s="1"/>
       <c r="AW383" s="1"/>
       <c r="AX383" s="1"/>
-    </row>
-    <row r="384" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY383" s="1"/>
+    </row>
+    <row r="384" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -36837,8 +37218,9 @@
       <c r="AV384" s="1"/>
       <c r="AW384" s="1"/>
       <c r="AX384" s="1"/>
-    </row>
-    <row r="385" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY384" s="1"/>
+    </row>
+    <row r="385" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -36889,8 +37271,9 @@
       <c r="AV385" s="1"/>
       <c r="AW385" s="1"/>
       <c r="AX385" s="1"/>
-    </row>
-    <row r="386" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY385" s="1"/>
+    </row>
+    <row r="386" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -36941,8 +37324,9 @@
       <c r="AV386" s="1"/>
       <c r="AW386" s="1"/>
       <c r="AX386" s="1"/>
-    </row>
-    <row r="387" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY386" s="1"/>
+    </row>
+    <row r="387" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -36993,8 +37377,9 @@
       <c r="AV387" s="1"/>
       <c r="AW387" s="1"/>
       <c r="AX387" s="1"/>
-    </row>
-    <row r="388" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY387" s="1"/>
+    </row>
+    <row r="388" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -37045,8 +37430,9 @@
       <c r="AV388" s="1"/>
       <c r="AW388" s="1"/>
       <c r="AX388" s="1"/>
-    </row>
-    <row r="389" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY388" s="1"/>
+    </row>
+    <row r="389" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -37097,8 +37483,9 @@
       <c r="AV389" s="1"/>
       <c r="AW389" s="1"/>
       <c r="AX389" s="1"/>
-    </row>
-    <row r="390" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY389" s="1"/>
+    </row>
+    <row r="390" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -37149,8 +37536,9 @@
       <c r="AV390" s="1"/>
       <c r="AW390" s="1"/>
       <c r="AX390" s="1"/>
-    </row>
-    <row r="391" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY390" s="1"/>
+    </row>
+    <row r="391" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -37201,8 +37589,9 @@
       <c r="AV391" s="1"/>
       <c r="AW391" s="1"/>
       <c r="AX391" s="1"/>
-    </row>
-    <row r="392" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY391" s="1"/>
+    </row>
+    <row r="392" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -37253,8 +37642,9 @@
       <c r="AV392" s="1"/>
       <c r="AW392" s="1"/>
       <c r="AX392" s="1"/>
-    </row>
-    <row r="393" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY392" s="1"/>
+    </row>
+    <row r="393" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -37305,8 +37695,9 @@
       <c r="AV393" s="1"/>
       <c r="AW393" s="1"/>
       <c r="AX393" s="1"/>
-    </row>
-    <row r="394" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY393" s="1"/>
+    </row>
+    <row r="394" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -37357,8 +37748,9 @@
       <c r="AV394" s="1"/>
       <c r="AW394" s="1"/>
       <c r="AX394" s="1"/>
-    </row>
-    <row r="395" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY394" s="1"/>
+    </row>
+    <row r="395" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -37409,8 +37801,9 @@
       <c r="AV395" s="1"/>
       <c r="AW395" s="1"/>
       <c r="AX395" s="1"/>
-    </row>
-    <row r="396" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY395" s="1"/>
+    </row>
+    <row r="396" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -37461,8 +37854,9 @@
       <c r="AV396" s="1"/>
       <c r="AW396" s="1"/>
       <c r="AX396" s="1"/>
-    </row>
-    <row r="397" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY396" s="1"/>
+    </row>
+    <row r="397" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -37513,8 +37907,9 @@
       <c r="AV397" s="1"/>
       <c r="AW397" s="1"/>
       <c r="AX397" s="1"/>
-    </row>
-    <row r="398" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY397" s="1"/>
+    </row>
+    <row r="398" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -37565,8 +37960,9 @@
       <c r="AV398" s="1"/>
       <c r="AW398" s="1"/>
       <c r="AX398" s="1"/>
-    </row>
-    <row r="399" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY398" s="1"/>
+    </row>
+    <row r="399" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -37617,8 +38013,9 @@
       <c r="AV399" s="1"/>
       <c r="AW399" s="1"/>
       <c r="AX399" s="1"/>
-    </row>
-    <row r="400" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY399" s="1"/>
+    </row>
+    <row r="400" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -37669,8 +38066,9 @@
       <c r="AV400" s="1"/>
       <c r="AW400" s="1"/>
       <c r="AX400" s="1"/>
-    </row>
-    <row r="401" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY400" s="1"/>
+    </row>
+    <row r="401" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -37721,8 +38119,9 @@
       <c r="AV401" s="1"/>
       <c r="AW401" s="1"/>
       <c r="AX401" s="1"/>
-    </row>
-    <row r="402" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY401" s="1"/>
+    </row>
+    <row r="402" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -37773,8 +38172,9 @@
       <c r="AV402" s="1"/>
       <c r="AW402" s="1"/>
       <c r="AX402" s="1"/>
-    </row>
-    <row r="403" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY402" s="1"/>
+    </row>
+    <row r="403" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -37825,8 +38225,9 @@
       <c r="AV403" s="1"/>
       <c r="AW403" s="1"/>
       <c r="AX403" s="1"/>
-    </row>
-    <row r="404" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY403" s="1"/>
+    </row>
+    <row r="404" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -37877,8 +38278,9 @@
       <c r="AV404" s="1"/>
       <c r="AW404" s="1"/>
       <c r="AX404" s="1"/>
-    </row>
-    <row r="405" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY404" s="1"/>
+    </row>
+    <row r="405" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -37929,8 +38331,9 @@
       <c r="AV405" s="1"/>
       <c r="AW405" s="1"/>
       <c r="AX405" s="1"/>
-    </row>
-    <row r="406" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY405" s="1"/>
+    </row>
+    <row r="406" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -37981,8 +38384,9 @@
       <c r="AV406" s="1"/>
       <c r="AW406" s="1"/>
       <c r="AX406" s="1"/>
-    </row>
-    <row r="407" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY406" s="1"/>
+    </row>
+    <row r="407" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -38033,8 +38437,9 @@
       <c r="AV407" s="1"/>
       <c r="AW407" s="1"/>
       <c r="AX407" s="1"/>
-    </row>
-    <row r="408" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY407" s="1"/>
+    </row>
+    <row r="408" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -38085,8 +38490,9 @@
       <c r="AV408" s="1"/>
       <c r="AW408" s="1"/>
       <c r="AX408" s="1"/>
-    </row>
-    <row r="409" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY408" s="1"/>
+    </row>
+    <row r="409" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -38137,8 +38543,9 @@
       <c r="AV409" s="1"/>
       <c r="AW409" s="1"/>
       <c r="AX409" s="1"/>
-    </row>
-    <row r="410" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY409" s="1"/>
+    </row>
+    <row r="410" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -38189,8 +38596,9 @@
       <c r="AV410" s="1"/>
       <c r="AW410" s="1"/>
       <c r="AX410" s="1"/>
-    </row>
-    <row r="411" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY410" s="1"/>
+    </row>
+    <row r="411" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -38241,8 +38649,9 @@
       <c r="AV411" s="1"/>
       <c r="AW411" s="1"/>
       <c r="AX411" s="1"/>
-    </row>
-    <row r="412" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY411" s="1"/>
+    </row>
+    <row r="412" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -38293,8 +38702,9 @@
       <c r="AV412" s="1"/>
       <c r="AW412" s="1"/>
       <c r="AX412" s="1"/>
-    </row>
-    <row r="413" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY412" s="1"/>
+    </row>
+    <row r="413" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -38345,8 +38755,9 @@
       <c r="AV413" s="1"/>
       <c r="AW413" s="1"/>
       <c r="AX413" s="1"/>
-    </row>
-    <row r="414" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY413" s="1"/>
+    </row>
+    <row r="414" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -38397,8 +38808,9 @@
       <c r="AV414" s="1"/>
       <c r="AW414" s="1"/>
       <c r="AX414" s="1"/>
-    </row>
-    <row r="415" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY414" s="1"/>
+    </row>
+    <row r="415" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -38449,8 +38861,9 @@
       <c r="AV415" s="1"/>
       <c r="AW415" s="1"/>
       <c r="AX415" s="1"/>
-    </row>
-    <row r="416" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY415" s="1"/>
+    </row>
+    <row r="416" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -38501,8 +38914,9 @@
       <c r="AV416" s="1"/>
       <c r="AW416" s="1"/>
       <c r="AX416" s="1"/>
-    </row>
-    <row r="417" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY416" s="1"/>
+    </row>
+    <row r="417" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -38553,8 +38967,9 @@
       <c r="AV417" s="1"/>
       <c r="AW417" s="1"/>
       <c r="AX417" s="1"/>
-    </row>
-    <row r="418" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY417" s="1"/>
+    </row>
+    <row r="418" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -38605,8 +39020,9 @@
       <c r="AV418" s="1"/>
       <c r="AW418" s="1"/>
       <c r="AX418" s="1"/>
-    </row>
-    <row r="419" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY418" s="1"/>
+    </row>
+    <row r="419" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -38657,8 +39073,9 @@
       <c r="AV419" s="1"/>
       <c r="AW419" s="1"/>
       <c r="AX419" s="1"/>
-    </row>
-    <row r="420" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY419" s="1"/>
+    </row>
+    <row r="420" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -38709,8 +39126,9 @@
       <c r="AV420" s="1"/>
       <c r="AW420" s="1"/>
       <c r="AX420" s="1"/>
-    </row>
-    <row r="421" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY420" s="1"/>
+    </row>
+    <row r="421" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -38761,8 +39179,9 @@
       <c r="AV421" s="1"/>
       <c r="AW421" s="1"/>
       <c r="AX421" s="1"/>
-    </row>
-    <row r="422" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY421" s="1"/>
+    </row>
+    <row r="422" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -38813,8 +39232,9 @@
       <c r="AV422" s="1"/>
       <c r="AW422" s="1"/>
       <c r="AX422" s="1"/>
-    </row>
-    <row r="423" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY422" s="1"/>
+    </row>
+    <row r="423" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -38865,8 +39285,9 @@
       <c r="AV423" s="1"/>
       <c r="AW423" s="1"/>
       <c r="AX423" s="1"/>
-    </row>
-    <row r="424" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY423" s="1"/>
+    </row>
+    <row r="424" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -38917,8 +39338,9 @@
       <c r="AV424" s="1"/>
       <c r="AW424" s="1"/>
       <c r="AX424" s="1"/>
-    </row>
-    <row r="425" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY424" s="1"/>
+    </row>
+    <row r="425" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -38969,8 +39391,9 @@
       <c r="AV425" s="1"/>
       <c r="AW425" s="1"/>
       <c r="AX425" s="1"/>
-    </row>
-    <row r="426" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY425" s="1"/>
+    </row>
+    <row r="426" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -39021,8 +39444,9 @@
       <c r="AV426" s="1"/>
       <c r="AW426" s="1"/>
       <c r="AX426" s="1"/>
-    </row>
-    <row r="427" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY426" s="1"/>
+    </row>
+    <row r="427" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -39073,8 +39497,9 @@
       <c r="AV427" s="1"/>
       <c r="AW427" s="1"/>
       <c r="AX427" s="1"/>
-    </row>
-    <row r="428" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY427" s="1"/>
+    </row>
+    <row r="428" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -39125,8 +39550,9 @@
       <c r="AV428" s="1"/>
       <c r="AW428" s="1"/>
       <c r="AX428" s="1"/>
-    </row>
-    <row r="429" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY428" s="1"/>
+    </row>
+    <row r="429" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -39177,8 +39603,9 @@
       <c r="AV429" s="1"/>
       <c r="AW429" s="1"/>
       <c r="AX429" s="1"/>
-    </row>
-    <row r="430" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY429" s="1"/>
+    </row>
+    <row r="430" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -39229,8 +39656,9 @@
       <c r="AV430" s="1"/>
       <c r="AW430" s="1"/>
       <c r="AX430" s="1"/>
-    </row>
-    <row r="431" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY430" s="1"/>
+    </row>
+    <row r="431" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -39281,8 +39709,9 @@
       <c r="AV431" s="1"/>
       <c r="AW431" s="1"/>
       <c r="AX431" s="1"/>
-    </row>
-    <row r="432" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY431" s="1"/>
+    </row>
+    <row r="432" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -39333,8 +39762,9 @@
       <c r="AV432" s="1"/>
       <c r="AW432" s="1"/>
       <c r="AX432" s="1"/>
-    </row>
-    <row r="433" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY432" s="1"/>
+    </row>
+    <row r="433" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -39385,8 +39815,9 @@
       <c r="AV433" s="1"/>
       <c r="AW433" s="1"/>
       <c r="AX433" s="1"/>
-    </row>
-    <row r="434" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY433" s="1"/>
+    </row>
+    <row r="434" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -39437,8 +39868,9 @@
       <c r="AV434" s="1"/>
       <c r="AW434" s="1"/>
       <c r="AX434" s="1"/>
-    </row>
-    <row r="435" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY434" s="1"/>
+    </row>
+    <row r="435" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -39489,8 +39921,9 @@
       <c r="AV435" s="1"/>
       <c r="AW435" s="1"/>
       <c r="AX435" s="1"/>
-    </row>
-    <row r="436" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY435" s="1"/>
+    </row>
+    <row r="436" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -39541,8 +39974,9 @@
       <c r="AV436" s="1"/>
       <c r="AW436" s="1"/>
       <c r="AX436" s="1"/>
-    </row>
-    <row r="437" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY436" s="1"/>
+    </row>
+    <row r="437" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -39593,8 +40027,9 @@
       <c r="AV437" s="1"/>
       <c r="AW437" s="1"/>
       <c r="AX437" s="1"/>
-    </row>
-    <row r="438" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY437" s="1"/>
+    </row>
+    <row r="438" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -39645,8 +40080,9 @@
       <c r="AV438" s="1"/>
       <c r="AW438" s="1"/>
       <c r="AX438" s="1"/>
-    </row>
-    <row r="439" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY438" s="1"/>
+    </row>
+    <row r="439" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -39697,8 +40133,9 @@
       <c r="AV439" s="1"/>
       <c r="AW439" s="1"/>
       <c r="AX439" s="1"/>
-    </row>
-    <row r="440" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY439" s="1"/>
+    </row>
+    <row r="440" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -39749,8 +40186,9 @@
       <c r="AV440" s="1"/>
       <c r="AW440" s="1"/>
       <c r="AX440" s="1"/>
-    </row>
-    <row r="441" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY440" s="1"/>
+    </row>
+    <row r="441" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -39801,8 +40239,9 @@
       <c r="AV441" s="1"/>
       <c r="AW441" s="1"/>
       <c r="AX441" s="1"/>
-    </row>
-    <row r="442" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY441" s="1"/>
+    </row>
+    <row r="442" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -39853,8 +40292,9 @@
       <c r="AV442" s="1"/>
       <c r="AW442" s="1"/>
       <c r="AX442" s="1"/>
-    </row>
-    <row r="443" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY442" s="1"/>
+    </row>
+    <row r="443" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -39905,8 +40345,9 @@
       <c r="AV443" s="1"/>
       <c r="AW443" s="1"/>
       <c r="AX443" s="1"/>
-    </row>
-    <row r="444" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY443" s="1"/>
+    </row>
+    <row r="444" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -39957,8 +40398,9 @@
       <c r="AV444" s="1"/>
       <c r="AW444" s="1"/>
       <c r="AX444" s="1"/>
-    </row>
-    <row r="445" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY444" s="1"/>
+    </row>
+    <row r="445" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -40009,8 +40451,9 @@
       <c r="AV445" s="1"/>
       <c r="AW445" s="1"/>
       <c r="AX445" s="1"/>
-    </row>
-    <row r="446" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY445" s="1"/>
+    </row>
+    <row r="446" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -40061,8 +40504,9 @@
       <c r="AV446" s="1"/>
       <c r="AW446" s="1"/>
       <c r="AX446" s="1"/>
-    </row>
-    <row r="447" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY446" s="1"/>
+    </row>
+    <row r="447" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -40113,8 +40557,9 @@
       <c r="AV447" s="1"/>
       <c r="AW447" s="1"/>
       <c r="AX447" s="1"/>
-    </row>
-    <row r="448" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY447" s="1"/>
+    </row>
+    <row r="448" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -40165,8 +40610,9 @@
       <c r="AV448" s="1"/>
       <c r="AW448" s="1"/>
       <c r="AX448" s="1"/>
-    </row>
-    <row r="449" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY448" s="1"/>
+    </row>
+    <row r="449" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -40217,8 +40663,9 @@
       <c r="AV449" s="1"/>
       <c r="AW449" s="1"/>
       <c r="AX449" s="1"/>
-    </row>
-    <row r="450" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY449" s="1"/>
+    </row>
+    <row r="450" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -40269,8 +40716,9 @@
       <c r="AV450" s="1"/>
       <c r="AW450" s="1"/>
       <c r="AX450" s="1"/>
-    </row>
-    <row r="451" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY450" s="1"/>
+    </row>
+    <row r="451" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -40321,8 +40769,9 @@
       <c r="AV451" s="1"/>
       <c r="AW451" s="1"/>
       <c r="AX451" s="1"/>
-    </row>
-    <row r="452" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY451" s="1"/>
+    </row>
+    <row r="452" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -40373,8 +40822,9 @@
       <c r="AV452" s="1"/>
       <c r="AW452" s="1"/>
       <c r="AX452" s="1"/>
-    </row>
-    <row r="453" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY452" s="1"/>
+    </row>
+    <row r="453" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -40425,8 +40875,9 @@
       <c r="AV453" s="1"/>
       <c r="AW453" s="1"/>
       <c r="AX453" s="1"/>
-    </row>
-    <row r="454" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY453" s="1"/>
+    </row>
+    <row r="454" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -40477,8 +40928,9 @@
       <c r="AV454" s="1"/>
       <c r="AW454" s="1"/>
       <c r="AX454" s="1"/>
-    </row>
-    <row r="455" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY454" s="1"/>
+    </row>
+    <row r="455" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -40529,8 +40981,9 @@
       <c r="AV455" s="1"/>
       <c r="AW455" s="1"/>
       <c r="AX455" s="1"/>
-    </row>
-    <row r="456" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY455" s="1"/>
+    </row>
+    <row r="456" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -40581,8 +41034,9 @@
       <c r="AV456" s="1"/>
       <c r="AW456" s="1"/>
       <c r="AX456" s="1"/>
-    </row>
-    <row r="457" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY456" s="1"/>
+    </row>
+    <row r="457" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -40633,8 +41087,9 @@
       <c r="AV457" s="1"/>
       <c r="AW457" s="1"/>
       <c r="AX457" s="1"/>
-    </row>
-    <row r="458" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY457" s="1"/>
+    </row>
+    <row r="458" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -40685,8 +41140,9 @@
       <c r="AV458" s="1"/>
       <c r="AW458" s="1"/>
       <c r="AX458" s="1"/>
-    </row>
-    <row r="459" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY458" s="1"/>
+    </row>
+    <row r="459" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -40737,8 +41193,9 @@
       <c r="AV459" s="1"/>
       <c r="AW459" s="1"/>
       <c r="AX459" s="1"/>
-    </row>
-    <row r="460" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY459" s="1"/>
+    </row>
+    <row r="460" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -40789,8 +41246,9 @@
       <c r="AV460" s="1"/>
       <c r="AW460" s="1"/>
       <c r="AX460" s="1"/>
-    </row>
-    <row r="461" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY460" s="1"/>
+    </row>
+    <row r="461" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -40841,8 +41299,9 @@
       <c r="AV461" s="1"/>
       <c r="AW461" s="1"/>
       <c r="AX461" s="1"/>
-    </row>
-    <row r="462" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY461" s="1"/>
+    </row>
+    <row r="462" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -40893,8 +41352,9 @@
       <c r="AV462" s="1"/>
       <c r="AW462" s="1"/>
       <c r="AX462" s="1"/>
-    </row>
-    <row r="463" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY462" s="1"/>
+    </row>
+    <row r="463" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -40945,8 +41405,9 @@
       <c r="AV463" s="1"/>
       <c r="AW463" s="1"/>
       <c r="AX463" s="1"/>
-    </row>
-    <row r="464" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY463" s="1"/>
+    </row>
+    <row r="464" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -40997,8 +41458,9 @@
       <c r="AV464" s="1"/>
       <c r="AW464" s="1"/>
       <c r="AX464" s="1"/>
-    </row>
-    <row r="465" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY464" s="1"/>
+    </row>
+    <row r="465" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -41049,8 +41511,9 @@
       <c r="AV465" s="1"/>
       <c r="AW465" s="1"/>
       <c r="AX465" s="1"/>
-    </row>
-    <row r="466" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY465" s="1"/>
+    </row>
+    <row r="466" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -41101,8 +41564,9 @@
       <c r="AV466" s="1"/>
       <c r="AW466" s="1"/>
       <c r="AX466" s="1"/>
-    </row>
-    <row r="467" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY466" s="1"/>
+    </row>
+    <row r="467" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -41153,8 +41617,9 @@
       <c r="AV467" s="1"/>
       <c r="AW467" s="1"/>
       <c r="AX467" s="1"/>
-    </row>
-    <row r="468" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY467" s="1"/>
+    </row>
+    <row r="468" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -41205,8 +41670,9 @@
       <c r="AV468" s="1"/>
       <c r="AW468" s="1"/>
       <c r="AX468" s="1"/>
-    </row>
-    <row r="469" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY468" s="1"/>
+    </row>
+    <row r="469" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -41257,8 +41723,9 @@
       <c r="AV469" s="1"/>
       <c r="AW469" s="1"/>
       <c r="AX469" s="1"/>
-    </row>
-    <row r="470" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY469" s="1"/>
+    </row>
+    <row r="470" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -41309,8 +41776,9 @@
       <c r="AV470" s="1"/>
       <c r="AW470" s="1"/>
       <c r="AX470" s="1"/>
-    </row>
-    <row r="471" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY470" s="1"/>
+    </row>
+    <row r="471" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -41361,8 +41829,9 @@
       <c r="AV471" s="1"/>
       <c r="AW471" s="1"/>
       <c r="AX471" s="1"/>
-    </row>
-    <row r="472" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY471" s="1"/>
+    </row>
+    <row r="472" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -41413,8 +41882,9 @@
       <c r="AV472" s="1"/>
       <c r="AW472" s="1"/>
       <c r="AX472" s="1"/>
-    </row>
-    <row r="473" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY472" s="1"/>
+    </row>
+    <row r="473" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -41465,8 +41935,9 @@
       <c r="AV473" s="1"/>
       <c r="AW473" s="1"/>
       <c r="AX473" s="1"/>
-    </row>
-    <row r="474" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY473" s="1"/>
+    </row>
+    <row r="474" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -41517,8 +41988,9 @@
       <c r="AV474" s="1"/>
       <c r="AW474" s="1"/>
       <c r="AX474" s="1"/>
-    </row>
-    <row r="475" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY474" s="1"/>
+    </row>
+    <row r="475" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -41569,8 +42041,9 @@
       <c r="AV475" s="1"/>
       <c r="AW475" s="1"/>
       <c r="AX475" s="1"/>
-    </row>
-    <row r="476" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY475" s="1"/>
+    </row>
+    <row r="476" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -41621,8 +42094,9 @@
       <c r="AV476" s="1"/>
       <c r="AW476" s="1"/>
       <c r="AX476" s="1"/>
-    </row>
-    <row r="477" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY476" s="1"/>
+    </row>
+    <row r="477" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -41673,8 +42147,9 @@
       <c r="AV477" s="1"/>
       <c r="AW477" s="1"/>
       <c r="AX477" s="1"/>
-    </row>
-    <row r="478" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY477" s="1"/>
+    </row>
+    <row r="478" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -41725,8 +42200,9 @@
       <c r="AV478" s="1"/>
       <c r="AW478" s="1"/>
       <c r="AX478" s="1"/>
-    </row>
-    <row r="479" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY478" s="1"/>
+    </row>
+    <row r="479" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -41777,8 +42253,9 @@
       <c r="AV479" s="1"/>
       <c r="AW479" s="1"/>
       <c r="AX479" s="1"/>
-    </row>
-    <row r="480" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY479" s="1"/>
+    </row>
+    <row r="480" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -41829,8 +42306,9 @@
       <c r="AV480" s="1"/>
       <c r="AW480" s="1"/>
       <c r="AX480" s="1"/>
-    </row>
-    <row r="481" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY480" s="1"/>
+    </row>
+    <row r="481" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -41881,8 +42359,9 @@
       <c r="AV481" s="1"/>
       <c r="AW481" s="1"/>
       <c r="AX481" s="1"/>
-    </row>
-    <row r="482" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY481" s="1"/>
+    </row>
+    <row r="482" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -41933,8 +42412,9 @@
       <c r="AV482" s="1"/>
       <c r="AW482" s="1"/>
       <c r="AX482" s="1"/>
-    </row>
-    <row r="483" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY482" s="1"/>
+    </row>
+    <row r="483" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -41985,8 +42465,9 @@
       <c r="AV483" s="1"/>
       <c r="AW483" s="1"/>
       <c r="AX483" s="1"/>
-    </row>
-    <row r="484" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY483" s="1"/>
+    </row>
+    <row r="484" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -42037,8 +42518,9 @@
       <c r="AV484" s="1"/>
       <c r="AW484" s="1"/>
       <c r="AX484" s="1"/>
-    </row>
-    <row r="485" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY484" s="1"/>
+    </row>
+    <row r="485" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -42089,8 +42571,9 @@
       <c r="AV485" s="1"/>
       <c r="AW485" s="1"/>
       <c r="AX485" s="1"/>
-    </row>
-    <row r="486" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY485" s="1"/>
+    </row>
+    <row r="486" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -42141,8 +42624,9 @@
       <c r="AV486" s="1"/>
       <c r="AW486" s="1"/>
       <c r="AX486" s="1"/>
-    </row>
-    <row r="487" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY486" s="1"/>
+    </row>
+    <row r="487" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -42193,8 +42677,9 @@
       <c r="AV487" s="1"/>
       <c r="AW487" s="1"/>
       <c r="AX487" s="1"/>
-    </row>
-    <row r="488" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY487" s="1"/>
+    </row>
+    <row r="488" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -42245,8 +42730,9 @@
       <c r="AV488" s="1"/>
       <c r="AW488" s="1"/>
       <c r="AX488" s="1"/>
-    </row>
-    <row r="489" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY488" s="1"/>
+    </row>
+    <row r="489" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -42297,8 +42783,9 @@
       <c r="AV489" s="1"/>
       <c r="AW489" s="1"/>
       <c r="AX489" s="1"/>
-    </row>
-    <row r="490" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY489" s="1"/>
+    </row>
+    <row r="490" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -42349,8 +42836,9 @@
       <c r="AV490" s="1"/>
       <c r="AW490" s="1"/>
       <c r="AX490" s="1"/>
-    </row>
-    <row r="491" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY490" s="1"/>
+    </row>
+    <row r="491" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -42401,8 +42889,9 @@
       <c r="AV491" s="1"/>
       <c r="AW491" s="1"/>
       <c r="AX491" s="1"/>
-    </row>
-    <row r="492" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY491" s="1"/>
+    </row>
+    <row r="492" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -42453,8 +42942,9 @@
       <c r="AV492" s="1"/>
       <c r="AW492" s="1"/>
       <c r="AX492" s="1"/>
-    </row>
-    <row r="493" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY492" s="1"/>
+    </row>
+    <row r="493" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -42505,8 +42995,9 @@
       <c r="AV493" s="1"/>
       <c r="AW493" s="1"/>
       <c r="AX493" s="1"/>
-    </row>
-    <row r="494" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY493" s="1"/>
+    </row>
+    <row r="494" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -42557,8 +43048,9 @@
       <c r="AV494" s="1"/>
       <c r="AW494" s="1"/>
       <c r="AX494" s="1"/>
-    </row>
-    <row r="495" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY494" s="1"/>
+    </row>
+    <row r="495" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -42609,8 +43101,9 @@
       <c r="AV495" s="1"/>
       <c r="AW495" s="1"/>
       <c r="AX495" s="1"/>
-    </row>
-    <row r="496" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY495" s="1"/>
+    </row>
+    <row r="496" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -42661,8 +43154,9 @@
       <c r="AV496" s="1"/>
       <c r="AW496" s="1"/>
       <c r="AX496" s="1"/>
-    </row>
-    <row r="497" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY496" s="1"/>
+    </row>
+    <row r="497" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -42713,8 +43207,9 @@
       <c r="AV497" s="1"/>
       <c r="AW497" s="1"/>
       <c r="AX497" s="1"/>
-    </row>
-    <row r="498" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY497" s="1"/>
+    </row>
+    <row r="498" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -42765,8 +43260,9 @@
       <c r="AV498" s="1"/>
       <c r="AW498" s="1"/>
       <c r="AX498" s="1"/>
-    </row>
-    <row r="499" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY498" s="1"/>
+    </row>
+    <row r="499" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -42817,9 +43313,10 @@
       <c r="AV499" s="1"/>
       <c r="AW499" s="1"/>
       <c r="AX499" s="1"/>
+      <c r="AY499" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF9" xr:uid="{DDE2858A-0F1F-4AB0-B338-03A5091CA2A6}"/>
+  <autoFilter ref="A3:AG9" xr:uid="{DDE2858A-0F1F-4AB0-B338-03A5091CA2A6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
